--- a/BackTest/2019-10-24 BackTest BSV.xlsx
+++ b/BackTest/2019-10-24 BackTest BSV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2300</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-21.73913043478261</v>
+      </c>
       <c r="L12" t="n">
         <v>115820</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2500</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-21.73913043478261</v>
+      </c>
       <c r="L13" t="n">
         <v>115750</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2800</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>4.347826086956522</v>
+      </c>
       <c r="L14" t="n">
         <v>115730</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3300</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>115690</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3500</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L16" t="n">
         <v>115630</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3800</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-25.92592592592592</v>
+      </c>
       <c r="L17" t="n">
         <v>115540</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4100</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>13.04347826086956</v>
+      </c>
       <c r="L18" t="n">
         <v>115500</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4100</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-5.263157894736842</v>
+      </c>
       <c r="L19" t="n">
         <v>115530</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4100</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>115520</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4100</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L21" t="n">
         <v>115500</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4100</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>115480</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4100</v>
       </c>
       <c r="K23" t="n">
-        <v>-17.07317073170732</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L23" t="n">
         <v>115480</v>
@@ -1466,7 +1488,7 @@
         <v>4100</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.82051282051282</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>115450</v>
@@ -1515,7 +1537,7 @@
         <v>4100</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>115470</v>
@@ -1564,7 +1586,7 @@
         <v>4200</v>
       </c>
       <c r="K26" t="n">
-        <v>-21.21212121212121</v>
+        <v>50</v>
       </c>
       <c r="L26" t="n">
         <v>115460</v>
@@ -1613,7 +1635,7 @@
         <v>4600</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.108108108108109</v>
+        <v>60</v>
       </c>
       <c r="L27" t="n">
         <v>115520</v>
@@ -1662,7 +1684,7 @@
         <v>5200</v>
       </c>
       <c r="K28" t="n">
-        <v>-17.07317073170732</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L28" t="n">
         <v>115490</v>
@@ -1711,7 +1733,7 @@
         <v>5200</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>115460</v>
@@ -1760,7 +1782,7 @@
         <v>5400</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>115450</v>
@@ -1809,7 +1831,7 @@
         <v>5600</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>115420</v>
@@ -1860,7 +1882,7 @@
         <v>5800</v>
       </c>
       <c r="K32" t="n">
-        <v>-20</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L32" t="n">
         <v>115370</v>
@@ -1911,7 +1933,7 @@
         <v>6000</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.571428571428571</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L33" t="n">
         <v>115340</v>
@@ -1962,7 +1984,7 @@
         <v>6000</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.75</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L34" t="n">
         <v>115310</v>
@@ -2013,7 +2035,7 @@
         <v>6400</v>
       </c>
       <c r="K35" t="n">
-        <v>-16.12903225806452</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L35" t="n">
         <v>115240</v>
@@ -2064,7 +2086,7 @@
         <v>6800</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L36" t="n">
         <v>115220</v>
@@ -2115,7 +2137,7 @@
         <v>7500</v>
       </c>
       <c r="K37" t="n">
-        <v>-18.91891891891892</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L37" t="n">
         <v>115090</v>
@@ -2166,7 +2188,7 @@
         <v>8100</v>
       </c>
       <c r="K38" t="n">
-        <v>-10</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L38" t="n">
         <v>115080</v>
@@ -2217,7 +2239,7 @@
         <v>8200</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.317073170731707</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L39" t="n">
         <v>115080</v>
@@ -2268,7 +2290,7 @@
         <v>8600</v>
       </c>
       <c r="K40" t="n">
-        <v>-15.55555555555556</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>115020</v>
@@ -2319,7 +2341,7 @@
         <v>9000</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.122448979591836</v>
+        <v>6.25</v>
       </c>
       <c r="L41" t="n">
         <v>115020</v>
@@ -2370,7 +2392,7 @@
         <v>9200</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.96078431372549</v>
+        <v>6.25</v>
       </c>
       <c r="L42" t="n">
         <v>115060</v>
@@ -2421,7 +2443,7 @@
         <v>9300</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L43" t="n">
         <v>115090</v>
@@ -2472,7 +2494,7 @@
         <v>9600</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.454545454545454</v>
+        <v>12.5</v>
       </c>
       <c r="L44" t="n">
         <v>115090</v>
@@ -2523,7 +2545,7 @@
         <v>10100</v>
       </c>
       <c r="K45" t="n">
-        <v>3.333333333333333</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L45" t="n">
         <v>115180</v>
@@ -2574,7 +2596,7 @@
         <v>10100</v>
       </c>
       <c r="K46" t="n">
-        <v>5.084745762711865</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L46" t="n">
         <v>115230</v>
@@ -2625,7 +2647,7 @@
         <v>10100</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.818181818181818</v>
+        <v>30</v>
       </c>
       <c r="L47" t="n">
         <v>115350</v>
@@ -2676,7 +2698,7 @@
         <v>10400</v>
       </c>
       <c r="K48" t="n">
-        <v>3.846153846153846</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>115380</v>
@@ -2727,7 +2749,7 @@
         <v>10500</v>
       </c>
       <c r="K49" t="n">
-        <v>1.886792452830189</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L49" t="n">
         <v>115390</v>
@@ -2778,7 +2800,7 @@
         <v>10800</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.407407407407407</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>115410</v>
@@ -2829,7 +2851,7 @@
         <v>11000</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L51" t="n">
         <v>115410</v>
@@ -2880,7 +2902,7 @@
         <v>11200</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L52" t="n">
         <v>115370</v>
@@ -2982,7 +3004,7 @@
         <v>11600</v>
       </c>
       <c r="K54" t="n">
-        <v>3.571428571428571</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>115360</v>
@@ -3033,7 +3055,7 @@
         <v>11700</v>
       </c>
       <c r="K55" t="n">
-        <v>13.20754716981132</v>
+        <v>-12.5</v>
       </c>
       <c r="L55" t="n">
         <v>115340</v>
@@ -3084,7 +3106,7 @@
         <v>11700</v>
       </c>
       <c r="K56" t="n">
-        <v>6.122448979591836</v>
+        <v>-12.5</v>
       </c>
       <c r="L56" t="n">
         <v>115320</v>
@@ -3135,7 +3157,7 @@
         <v>11800</v>
       </c>
       <c r="K57" t="n">
-        <v>25.58139534883721</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>115310</v>
@@ -3186,7 +3208,7 @@
         <v>11800</v>
       </c>
       <c r="K58" t="n">
-        <v>13.51351351351351</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L58" t="n">
         <v>115330</v>
@@ -3237,7 +3259,7 @@
         <v>11900</v>
       </c>
       <c r="K59" t="n">
-        <v>13.51351351351351</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L59" t="n">
         <v>115370</v>
@@ -3288,7 +3310,7 @@
         <v>12000</v>
       </c>
       <c r="K60" t="n">
-        <v>23.52941176470588</v>
+        <v>40</v>
       </c>
       <c r="L60" t="n">
         <v>115430</v>
@@ -3339,7 +3361,7 @@
         <v>12000</v>
       </c>
       <c r="K61" t="n">
-        <v>13.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L61" t="n">
         <v>115470</v>
@@ -3390,7 +3412,7 @@
         <v>12100</v>
       </c>
       <c r="K62" t="n">
-        <v>10.3448275862069</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L62" t="n">
         <v>115540</v>
@@ -3441,7 +3463,7 @@
         <v>12200</v>
       </c>
       <c r="K63" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>115580</v>
@@ -3492,7 +3514,7 @@
         <v>12200</v>
       </c>
       <c r="K64" t="n">
-        <v>15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>115600</v>
@@ -3543,7 +3565,7 @@
         <v>12300</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>115620</v>
@@ -3594,7 +3616,7 @@
         <v>13000</v>
       </c>
       <c r="K66" t="n">
-        <v>-24.13793103448276</v>
+        <v>-50</v>
       </c>
       <c r="L66" t="n">
         <v>115570</v>
@@ -3645,7 +3667,7 @@
         <v>13200</v>
       </c>
       <c r="K67" t="n">
-        <v>-16.12903225806452</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>115530</v>
@@ -3696,7 +3718,7 @@
         <v>13400</v>
       </c>
       <c r="K68" t="n">
-        <v>-13.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L68" t="n">
         <v>115470</v>
@@ -3747,7 +3769,7 @@
         <v>13600</v>
       </c>
       <c r="K69" t="n">
-        <v>-16.12903225806452</v>
+        <v>-50</v>
       </c>
       <c r="L69" t="n">
         <v>115380</v>
@@ -3798,7 +3820,7 @@
         <v>13800</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>115320</v>
@@ -3849,7 +3871,7 @@
         <v>14400</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.52941176470588</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L71" t="n">
         <v>115200</v>
@@ -3900,7 +3922,7 @@
         <v>14500</v>
       </c>
       <c r="K72" t="n">
-        <v>-15.15151515151515</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L72" t="n">
         <v>115080</v>
@@ -3951,7 +3973,7 @@
         <v>14900</v>
       </c>
       <c r="K73" t="n">
-        <v>-31.42857142857143</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L73" t="n">
         <v>114930</v>
@@ -4002,7 +4024,7 @@
         <v>15600</v>
       </c>
       <c r="K74" t="n">
-        <v>-15</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L74" t="n">
         <v>114850</v>
@@ -4053,7 +4075,7 @@
         <v>15600</v>
       </c>
       <c r="K75" t="n">
-        <v>-17.94871794871795</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L75" t="n">
         <v>114760</v>
@@ -4104,7 +4126,7 @@
         <v>15600</v>
       </c>
       <c r="K76" t="n">
-        <v>-17.94871794871795</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>114740</v>
@@ -4155,7 +4177,7 @@
         <v>15700</v>
       </c>
       <c r="K77" t="n">
-        <v>-17.94871794871795</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L77" t="n">
         <v>114710</v>
@@ -4206,7 +4228,7 @@
         <v>16000</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.523809523809524</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L78" t="n">
         <v>114730</v>
@@ -4257,7 +4279,7 @@
         <v>16300</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.545454545454546</v>
+        <v>20</v>
       </c>
       <c r="L79" t="n">
         <v>114800</v>
@@ -4308,7 +4330,7 @@
         <v>16300</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.325581395348837</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L80" t="n">
         <v>114850</v>
@@ -4359,7 +4381,7 @@
         <v>16500</v>
       </c>
       <c r="K81" t="n">
-        <v>2.222222222222222</v>
+        <v>60</v>
       </c>
       <c r="L81" t="n">
         <v>114980</v>
@@ -4410,7 +4432,7 @@
         <v>16500</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>115100</v>
@@ -4461,7 +4483,7 @@
         <v>16900</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.382978723404255</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L83" t="n">
         <v>115220</v>
@@ -4512,7 +4534,7 @@
         <v>17400</v>
       </c>
       <c r="K84" t="n">
-        <v>3.846153846153846</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L84" t="n">
         <v>115320</v>
@@ -4563,7 +4585,7 @@
         <v>17900</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.142857142857142</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L85" t="n">
         <v>115370</v>
@@ -4614,7 +4636,7 @@
         <v>17900</v>
       </c>
       <c r="K86" t="n">
-        <v>6.122448979591836</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L86" t="n">
         <v>115420</v>
@@ -4665,7 +4687,7 @@
         <v>18200</v>
       </c>
       <c r="K87" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L87" t="n">
         <v>115430</v>
@@ -4716,7 +4738,7 @@
         <v>18300</v>
       </c>
       <c r="K88" t="n">
-        <v>2.040816326530612</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>115420</v>
@@ -4767,7 +4789,7 @@
         <v>18400</v>
       </c>
       <c r="K89" t="n">
-        <v>4.166666666666666</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L89" t="n">
         <v>115370</v>
@@ -4818,7 +4840,7 @@
         <v>18500</v>
       </c>
       <c r="K90" t="n">
-        <v>2.127659574468085</v>
+        <v>-30</v>
       </c>
       <c r="L90" t="n">
         <v>115330</v>
@@ -4869,7 +4891,7 @@
         <v>18600</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>115260</v>
@@ -4920,7 +4942,7 @@
         <v>19000</v>
       </c>
       <c r="K92" t="n">
-        <v>20</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L92" t="n">
         <v>115230</v>
@@ -4971,7 +4993,7 @@
         <v>19400</v>
       </c>
       <c r="K93" t="n">
-        <v>37.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>115280</v>
@@ -5022,7 +5044,7 @@
         <v>19400</v>
       </c>
       <c r="K94" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>115280</v>
@@ -5073,7 +5095,7 @@
         <v>19900</v>
       </c>
       <c r="K95" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>115280</v>
@@ -5124,7 +5146,7 @@
         <v>20000</v>
       </c>
       <c r="K96" t="n">
-        <v>13.63636363636363</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L96" t="n">
         <v>115290</v>
@@ -5175,7 +5197,7 @@
         <v>20000</v>
       </c>
       <c r="K97" t="n">
-        <v>11.62790697674419</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L97" t="n">
         <v>115330</v>
@@ -5226,7 +5248,7 @@
         <v>20100</v>
       </c>
       <c r="K98" t="n">
-        <v>7.317073170731707</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L98" t="n">
         <v>115370</v>
@@ -5277,7 +5299,7 @@
         <v>20500</v>
       </c>
       <c r="K99" t="n">
-        <v>-9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>115380</v>
@@ -5328,7 +5350,7 @@
         <v>20600</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>115370</v>
@@ -5379,7 +5401,7 @@
         <v>20800</v>
       </c>
       <c r="K101" t="n">
-        <v>-20.93023255813954</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>115350</v>
@@ -5430,7 +5452,7 @@
         <v>21200</v>
       </c>
       <c r="K102" t="n">
-        <v>-10.63829787234043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>115330</v>
@@ -5481,7 +5503,7 @@
         <v>21900</v>
       </c>
       <c r="K103" t="n">
-        <v>-16</v>
+        <v>-52</v>
       </c>
       <c r="L103" t="n">
         <v>115200</v>
@@ -5532,7 +5554,7 @@
         <v>22400</v>
       </c>
       <c r="K104" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="L104" t="n">
         <v>115120</v>
@@ -5583,7 +5605,7 @@
         <v>23100</v>
       </c>
       <c r="K105" t="n">
-        <v>-19.23076923076923</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L105" t="n">
         <v>115020</v>
@@ -5634,7 +5656,7 @@
         <v>23200</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.9811320754717</v>
+        <v>-31.25</v>
       </c>
       <c r="L106" t="n">
         <v>114920</v>
@@ -5685,7 +5707,7 @@
         <v>23600</v>
       </c>
       <c r="K107" t="n">
-        <v>-3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L107" t="n">
         <v>114860</v>
@@ -5736,7 +5758,7 @@
         <v>23700</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.407407407407407</v>
+        <v>-12.5</v>
       </c>
       <c r="L108" t="n">
         <v>114780</v>
@@ -5787,7 +5809,7 @@
         <v>23900</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.090909090909092</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L109" t="n">
         <v>114720</v>
@@ -5838,7 +5860,7 @@
         <v>24000</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.090909090909092</v>
+        <v>-6.25</v>
       </c>
       <c r="L110" t="n">
         <v>114680</v>
@@ -5889,7 +5911,7 @@
         <v>24300</v>
       </c>
       <c r="K111" t="n">
-        <v>-12.28070175438596</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L111" t="n">
         <v>114630</v>
@@ -5940,7 +5962,7 @@
         <v>24400</v>
       </c>
       <c r="K112" t="n">
-        <v>-18.51851851851852</v>
+        <v>-4</v>
       </c>
       <c r="L112" t="n">
         <v>114550</v>
@@ -5991,7 +6013,7 @@
         <v>24600</v>
       </c>
       <c r="K113" t="n">
-        <v>-30.76923076923077</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L113" t="n">
         <v>114520</v>
@@ -6042,7 +6064,7 @@
         <v>24900</v>
       </c>
       <c r="K114" t="n">
-        <v>-34.54545454545455</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L114" t="n">
         <v>114410</v>
@@ -6093,7 +6115,7 @@
         <v>25200</v>
       </c>
       <c r="K115" t="n">
-        <v>-32.0754716981132</v>
+        <v>-40</v>
       </c>
       <c r="L115" t="n">
         <v>114340</v>
@@ -6144,7 +6166,7 @@
         <v>25600</v>
       </c>
       <c r="K116" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L116" t="n">
         <v>114300</v>
@@ -6195,7 +6217,7 @@
         <v>25600</v>
       </c>
       <c r="K117" t="n">
-        <v>-25</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L117" t="n">
         <v>114220</v>
@@ -6246,7 +6268,7 @@
         <v>25800</v>
       </c>
       <c r="K118" t="n">
-        <v>-29.82456140350877</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L118" t="n">
         <v>114130</v>
@@ -6297,7 +6319,7 @@
         <v>26000</v>
       </c>
       <c r="K119" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L119" t="n">
         <v>114040</v>
@@ -6348,7 +6370,7 @@
         <v>26000</v>
       </c>
       <c r="K120" t="n">
-        <v>-25.92592592592592</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L120" t="n">
         <v>113940</v>
@@ -6399,7 +6421,7 @@
         <v>26100</v>
       </c>
       <c r="K121" t="n">
-        <v>-20.75471698113208</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L121" t="n">
         <v>113880</v>
@@ -6450,7 +6472,7 @@
         <v>26100</v>
       </c>
       <c r="K122" t="n">
-        <v>-30.61224489795918</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>113810</v>
@@ -6501,7 +6523,7 @@
         <v>26500</v>
       </c>
       <c r="K123" t="n">
-        <v>-26.08695652173913</v>
+        <v>-37.5</v>
       </c>
       <c r="L123" t="n">
         <v>113720</v>
@@ -6552,7 +6574,7 @@
         <v>26900</v>
       </c>
       <c r="K124" t="n">
-        <v>-28.88888888888889</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L124" t="n">
         <v>113700</v>
@@ -6603,7 +6625,7 @@
         <v>27400</v>
       </c>
       <c r="K125" t="n">
-        <v>-25.58139534883721</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L125" t="n">
         <v>113660</v>
@@ -6654,7 +6676,7 @@
         <v>27600</v>
       </c>
       <c r="K126" t="n">
-        <v>-22.72727272727273</v>
+        <v>-30</v>
       </c>
       <c r="L126" t="n">
         <v>113600</v>
@@ -6705,7 +6727,7 @@
         <v>28200</v>
       </c>
       <c r="K127" t="n">
-        <v>-17.39130434782609</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L127" t="n">
         <v>113600</v>
@@ -6756,7 +6778,7 @@
         <v>28400</v>
       </c>
       <c r="K128" t="n">
-        <v>-19.14893617021277</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L128" t="n">
         <v>113600</v>
@@ -6807,7 +6829,7 @@
         <v>28400</v>
       </c>
       <c r="K129" t="n">
-        <v>-15.55555555555556</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L129" t="n">
         <v>113620</v>
@@ -6858,7 +6880,7 @@
         <v>28800</v>
       </c>
       <c r="K130" t="n">
-        <v>-8.333333333333332</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L130" t="n">
         <v>113680</v>
@@ -6909,7 +6931,7 @@
         <v>29300</v>
       </c>
       <c r="K131" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>113680</v>
@@ -6960,7 +6982,7 @@
         <v>30000</v>
       </c>
       <c r="K132" t="n">
-        <v>-25</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L132" t="n">
         <v>113610</v>
@@ -7011,7 +7033,7 @@
         <v>30400</v>
       </c>
       <c r="K133" t="n">
-        <v>-27.58620689655172</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L133" t="n">
         <v>113540</v>
@@ -7062,7 +7084,7 @@
         <v>30500</v>
       </c>
       <c r="K134" t="n">
-        <v>-25</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L134" t="n">
         <v>113420</v>
@@ -7113,7 +7135,7 @@
         <v>30600</v>
       </c>
       <c r="K135" t="n">
-        <v>-18.51851851851852</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L135" t="n">
         <v>113360</v>
@@ -7164,7 +7186,7 @@
         <v>30600</v>
       </c>
       <c r="K136" t="n">
-        <v>-28</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L136" t="n">
         <v>113280</v>
@@ -7215,7 +7237,7 @@
         <v>30700</v>
       </c>
       <c r="K137" t="n">
-        <v>-25.49019607843137</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L137" t="n">
         <v>113150</v>
@@ -7266,7 +7288,7 @@
         <v>31500</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L138" t="n">
         <v>113120</v>
@@ -7317,7 +7339,7 @@
         <v>31900</v>
       </c>
       <c r="K139" t="n">
-        <v>-8.474576271186439</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L139" t="n">
         <v>113050</v>
@@ -7368,7 +7390,7 @@
         <v>32400</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.625</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L140" t="n">
         <v>112890</v>
@@ -7419,7 +7441,7 @@
         <v>32600</v>
       </c>
       <c r="K141" t="n">
-        <v>-13.84615384615385</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L141" t="n">
         <v>112800</v>
@@ -7470,7 +7492,7 @@
         <v>33100</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.714285714285714</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L142" t="n">
         <v>112830</v>
@@ -7521,7 +7543,7 @@
         <v>33300</v>
       </c>
       <c r="K143" t="n">
-        <v>2.941176470588235</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L143" t="n">
         <v>112920</v>
@@ -7572,7 +7594,7 @@
         <v>33400</v>
       </c>
       <c r="K144" t="n">
-        <v>-1.538461538461539</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L144" t="n">
         <v>113030</v>
@@ -7623,7 +7645,7 @@
         <v>33600</v>
       </c>
       <c r="K145" t="n">
-        <v>9.67741935483871</v>
+        <v>40</v>
       </c>
       <c r="L145" t="n">
         <v>113150</v>
@@ -7674,7 +7696,7 @@
         <v>33700</v>
       </c>
       <c r="K146" t="n">
-        <v>4.918032786885246</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>113260</v>
@@ -7725,7 +7747,7 @@
         <v>34000</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L147" t="n">
         <v>113390</v>
@@ -7776,7 +7798,7 @@
         <v>34100</v>
       </c>
       <c r="K148" t="n">
-        <v>5.263157894736842</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L148" t="n">
         <v>113450</v>
@@ -7827,7 +7849,7 @@
         <v>34100</v>
       </c>
       <c r="K149" t="n">
-        <v>5.263157894736842</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L149" t="n">
         <v>113550</v>
@@ -7878,7 +7900,7 @@
         <v>34700</v>
       </c>
       <c r="K150" t="n">
-        <v>8.474576271186439</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L150" t="n">
         <v>113760</v>
@@ -7929,7 +7951,7 @@
         <v>34700</v>
       </c>
       <c r="K151" t="n">
-        <v>18.51851851851852</v>
+        <v>87.5</v>
       </c>
       <c r="L151" t="n">
         <v>113950</v>
@@ -7980,7 +8002,7 @@
         <v>35300</v>
       </c>
       <c r="K152" t="n">
-        <v>20.75471698113208</v>
+        <v>30</v>
       </c>
       <c r="L152" t="n">
         <v>114030</v>
@@ -8031,7 +8053,7 @@
         <v>35300</v>
       </c>
       <c r="K153" t="n">
-        <v>30.61224489795918</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L153" t="n">
         <v>114090</v>
@@ -8082,7 +8104,7 @@
         <v>35900</v>
       </c>
       <c r="K154" t="n">
-        <v>18.51851851851852</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L154" t="n">
         <v>114080</v>
@@ -8133,7 +8155,7 @@
         <v>35900</v>
       </c>
       <c r="K155" t="n">
-        <v>16.9811320754717</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L155" t="n">
         <v>114050</v>
@@ -8184,7 +8206,7 @@
         <v>36300</v>
       </c>
       <c r="K156" t="n">
-        <v>22.80701754385965</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L156" t="n">
         <v>114070</v>
@@ -8235,7 +8257,7 @@
         <v>36300</v>
       </c>
       <c r="K157" t="n">
-        <v>21.42857142857143</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L157" t="n">
         <v>114060</v>
@@ -8286,7 +8308,7 @@
         <v>36300</v>
       </c>
       <c r="K158" t="n">
-        <v>8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L158" t="n">
         <v>114040</v>
@@ -8337,7 +8359,7 @@
         <v>36400</v>
       </c>
       <c r="K159" t="n">
-        <v>15.55555555555556</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L159" t="n">
         <v>114010</v>
@@ -8388,7 +8410,7 @@
         <v>36600</v>
       </c>
       <c r="K160" t="n">
-        <v>23.80952380952381</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L160" t="n">
         <v>113900</v>
@@ -8439,7 +8461,7 @@
         <v>36600</v>
       </c>
       <c r="K161" t="n">
-        <v>20</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L161" t="n">
         <v>113790</v>
@@ -8490,7 +8512,7 @@
         <v>36600</v>
       </c>
       <c r="K162" t="n">
-        <v>8.571428571428571</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L162" t="n">
         <v>113740</v>
@@ -8541,7 +8563,7 @@
         <v>36600</v>
       </c>
       <c r="K163" t="n">
-        <v>3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L163" t="n">
         <v>113690</v>
@@ -8592,7 +8614,7 @@
         <v>36700</v>
       </c>
       <c r="K164" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>113690</v>
@@ -8643,7 +8665,7 @@
         <v>36900</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.03030303030303</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>113710</v>
@@ -8694,7 +8716,7 @@
         <v>37500</v>
       </c>
       <c r="K166" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>113750</v>
@@ -8745,7 +8767,7 @@
         <v>37600</v>
       </c>
       <c r="K167" t="n">
-        <v>5.555555555555555</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L167" t="n">
         <v>113780</v>
@@ -8796,7 +8818,7 @@
         <v>38100</v>
       </c>
       <c r="K168" t="n">
-        <v>-10</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L168" t="n">
         <v>113760</v>
@@ -8847,7 +8869,7 @@
         <v>38400</v>
       </c>
       <c r="K169" t="n">
-        <v>-16.27906976744186</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L169" t="n">
         <v>113720</v>
@@ -8898,7 +8920,7 @@
         <v>38500</v>
       </c>
       <c r="K170" t="n">
-        <v>-31.57894736842105</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L170" t="n">
         <v>113710</v>
@@ -8949,7 +8971,7 @@
         <v>38900</v>
       </c>
       <c r="K171" t="n">
-        <v>-19.04761904761905</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L171" t="n">
         <v>113740</v>
@@ -9000,7 +9022,7 @@
         <v>39200</v>
       </c>
       <c r="K172" t="n">
-        <v>2.564102564102564</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L172" t="n">
         <v>113800</v>
@@ -9051,7 +9073,7 @@
         <v>39400</v>
       </c>
       <c r="K173" t="n">
-        <v>7.317073170731707</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>113880</v>
@@ -9102,7 +9124,7 @@
         <v>39400</v>
       </c>
       <c r="K174" t="n">
-        <v>25.71428571428571</v>
+        <v>28</v>
       </c>
       <c r="L174" t="n">
         <v>113970</v>
@@ -9153,7 +9175,7 @@
         <v>39500</v>
       </c>
       <c r="K175" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>114030</v>
@@ -9204,7 +9226,7 @@
         <v>39500</v>
       </c>
       <c r="K176" t="n">
-        <v>12.5</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L176" t="n">
         <v>114030</v>
@@ -9255,7 +9277,7 @@
         <v>40000</v>
       </c>
       <c r="K177" t="n">
-        <v>24.32432432432433</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L177" t="n">
         <v>114090</v>
@@ -9306,7 +9328,7 @@
         <v>40500</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L178" t="n">
         <v>114250</v>
@@ -9357,7 +9379,7 @@
         <v>40800</v>
       </c>
       <c r="K179" t="n">
-        <v>27.27272727272727</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L179" t="n">
         <v>114410</v>
@@ -9408,7 +9430,7 @@
         <v>41200</v>
       </c>
       <c r="K180" t="n">
-        <v>39.1304347826087</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L180" t="n">
         <v>114600</v>
@@ -9459,7 +9481,7 @@
         <v>41400</v>
       </c>
       <c r="K181" t="n">
-        <v>41.66666666666667</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L181" t="n">
         <v>114770</v>
@@ -9510,7 +9532,7 @@
         <v>42100</v>
       </c>
       <c r="K182" t="n">
-        <v>23.63636363636364</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L182" t="n">
         <v>114840</v>
@@ -9561,7 +9583,7 @@
         <v>42200</v>
       </c>
       <c r="K183" t="n">
-        <v>21.42857142857143</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>114880</v>
@@ -9612,7 +9634,7 @@
         <v>42200</v>
       </c>
       <c r="K184" t="n">
-        <v>23.63636363636364</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L184" t="n">
         <v>114920</v>
@@ -9663,7 +9685,7 @@
         <v>42200</v>
       </c>
       <c r="K185" t="n">
-        <v>20.75471698113208</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L185" t="n">
         <v>114970</v>
@@ -9714,7 +9736,7 @@
         <v>42700</v>
       </c>
       <c r="K186" t="n">
-        <v>19.23076923076923</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L186" t="n">
         <v>115070</v>
@@ -9765,7 +9787,7 @@
         <v>43100</v>
       </c>
       <c r="K187" t="n">
-        <v>12.72727272727273</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L187" t="n">
         <v>115080</v>
@@ -9816,7 +9838,7 @@
         <v>43600</v>
       </c>
       <c r="K188" t="n">
-        <v>30.90909090909091</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>115090</v>
@@ -9867,7 +9889,7 @@
         <v>43800</v>
       </c>
       <c r="K189" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L189" t="n">
         <v>115110</v>
@@ -9918,7 +9940,7 @@
         <v>44000</v>
       </c>
       <c r="K190" t="n">
-        <v>27.27272727272727</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L190" t="n">
         <v>115070</v>
@@ -9969,7 +9991,7 @@
         <v>44100</v>
       </c>
       <c r="K191" t="n">
-        <v>19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>115000</v>
@@ -10020,7 +10042,7 @@
         <v>44100</v>
       </c>
       <c r="K192" t="n">
-        <v>14.28571428571428</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L192" t="n">
         <v>115000</v>
@@ -10071,7 +10093,7 @@
         <v>44200</v>
       </c>
       <c r="K193" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>115000</v>
@@ -10122,7 +10144,7 @@
         <v>44200</v>
       </c>
       <c r="K194" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>115000</v>
@@ -10173,7 +10195,7 @@
         <v>44300</v>
       </c>
       <c r="K195" t="n">
-        <v>12.5</v>
+        <v>-25</v>
       </c>
       <c r="L195" t="n">
         <v>115010</v>
@@ -10224,7 +10246,7 @@
         <v>44800</v>
       </c>
       <c r="K196" t="n">
-        <v>20.75471698113208</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L196" t="n">
         <v>115020</v>
@@ -10275,7 +10297,7 @@
         <v>45300</v>
       </c>
       <c r="K197" t="n">
-        <v>1.886792452830189</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L197" t="n">
         <v>115020</v>
@@ -10326,7 +10348,7 @@
         <v>45400</v>
       </c>
       <c r="K198" t="n">
-        <v>-10.20408163265306</v>
+        <v>-25</v>
       </c>
       <c r="L198" t="n">
         <v>114960</v>
@@ -10377,7 +10399,7 @@
         <v>45500</v>
       </c>
       <c r="K199" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L199" t="n">
         <v>114930</v>
@@ -10428,7 +10450,7 @@
         <v>45500</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>114920</v>
@@ -10479,7 +10501,7 @@
         <v>45900</v>
       </c>
       <c r="K201" t="n">
-        <v>-6.666666666666667</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L201" t="n">
         <v>114960</v>
@@ -10530,7 +10552,7 @@
         <v>46100</v>
       </c>
       <c r="K202" t="n">
-        <v>15</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L202" t="n">
         <v>115020</v>
@@ -10581,7 +10603,7 @@
         <v>46200</v>
       </c>
       <c r="K203" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L203" t="n">
         <v>115100</v>
@@ -10632,7 +10654,7 @@
         <v>46200</v>
       </c>
       <c r="K204" t="n">
-        <v>20</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L204" t="n">
         <v>115180</v>
@@ -10683,7 +10705,7 @@
         <v>46900</v>
       </c>
       <c r="K205" t="n">
-        <v>2.127659574468085</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L205" t="n">
         <v>115180</v>
@@ -10734,7 +10756,7 @@
         <v>47000</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.62790697674419</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L206" t="n">
         <v>115120</v>
@@ -10785,7 +10807,7 @@
         <v>47600</v>
       </c>
       <c r="K207" t="n">
-        <v>-15.55555555555556</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L207" t="n">
         <v>115050</v>
@@ -10836,7 +10858,7 @@
         <v>47900</v>
       </c>
       <c r="K208" t="n">
-        <v>-20.93023255813954</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L208" t="n">
         <v>115020</v>
@@ -10887,7 +10909,7 @@
         <v>48000</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12</v>
       </c>
       <c r="L209" t="n">
         <v>114990</v>
@@ -10938,7 +10960,7 @@
         <v>48100</v>
       </c>
       <c r="K210" t="n">
-        <v>-12.19512195121951</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L210" t="n">
         <v>114950</v>
@@ -10989,7 +11011,7 @@
         <v>48200</v>
       </c>
       <c r="K211" t="n">
-        <v>-7.317073170731707</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L211" t="n">
         <v>114880</v>
@@ -11040,7 +11062,7 @@
         <v>48600</v>
       </c>
       <c r="K212" t="n">
-        <v>2.222222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L212" t="n">
         <v>114830</v>
@@ -11091,7 +11113,7 @@
         <v>48600</v>
       </c>
       <c r="K213" t="n">
-        <v>4.545454545454546</v>
+        <v>-25</v>
       </c>
       <c r="L213" t="n">
         <v>114770</v>
@@ -11142,7 +11164,7 @@
         <v>48600</v>
       </c>
       <c r="K214" t="n">
-        <v>4.545454545454546</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L214" t="n">
         <v>114710</v>
@@ -11193,7 +11215,7 @@
         <v>49100</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>114670</v>
@@ -11244,7 +11266,7 @@
         <v>49400</v>
       </c>
       <c r="K216" t="n">
-        <v>-13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>114670</v>
@@ -11295,7 +11317,7 @@
         <v>49800</v>
       </c>
       <c r="K217" t="n">
-        <v>-11.11111111111111</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L217" t="n">
         <v>114690</v>
@@ -11346,7 +11368,7 @@
         <v>49800</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L218" t="n">
         <v>114680</v>
@@ -11397,7 +11419,7 @@
         <v>50000</v>
       </c>
       <c r="K219" t="n">
-        <v>-15.55555555555556</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L219" t="n">
         <v>114640</v>
@@ -11448,7 +11470,7 @@
         <v>50200</v>
       </c>
       <c r="K220" t="n">
-        <v>-19.14893617021277</v>
+        <v>-30</v>
       </c>
       <c r="L220" t="n">
         <v>114590</v>
@@ -11499,7 +11521,7 @@
         <v>50700</v>
       </c>
       <c r="K221" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L221" t="n">
         <v>114580</v>
@@ -11550,7 +11572,7 @@
         <v>50900</v>
       </c>
       <c r="K222" t="n">
-        <v>-25</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L222" t="n">
         <v>114510</v>
@@ -11601,7 +11623,7 @@
         <v>51200</v>
       </c>
       <c r="K223" t="n">
-        <v>-32</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L223" t="n">
         <v>114410</v>
@@ -11652,7 +11674,7 @@
         <v>51300</v>
       </c>
       <c r="K224" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L224" t="n">
         <v>114300</v>
@@ -11703,7 +11725,7 @@
         <v>51300</v>
       </c>
       <c r="K225" t="n">
-        <v>-22.72727272727273</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L225" t="n">
         <v>114240</v>
@@ -11754,7 +11776,7 @@
         <v>51300</v>
       </c>
       <c r="K226" t="n">
-        <v>-20.93023255813954</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>114150</v>
@@ -11805,7 +11827,7 @@
         <v>51300</v>
       </c>
       <c r="K227" t="n">
-        <v>-8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>114100</v>
@@ -11856,7 +11878,7 @@
         <v>51300</v>
       </c>
       <c r="K228" t="n">
-        <v>-17.64705882352941</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L228" t="n">
         <v>114050</v>
@@ -11907,7 +11929,7 @@
         <v>51500</v>
       </c>
       <c r="K229" t="n">
-        <v>-25.71428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L229" t="n">
         <v>114000</v>
@@ -11958,7 +11980,7 @@
         <v>51500</v>
       </c>
       <c r="K230" t="n">
-        <v>-23.52941176470588</v>
+        <v>-100</v>
       </c>
       <c r="L230" t="n">
         <v>113970</v>
@@ -12009,7 +12031,7 @@
         <v>51500</v>
       </c>
       <c r="K231" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L231" t="n">
         <v>113890</v>
@@ -12060,7 +12082,7 @@
         <v>51500</v>
       </c>
       <c r="K232" t="n">
-        <v>-44.82758620689656</v>
+        <v>-100</v>
       </c>
       <c r="L232" t="n">
         <v>113830</v>
@@ -12111,7 +12133,7 @@
         <v>51600</v>
       </c>
       <c r="K233" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>113810</v>
@@ -12162,7 +12184,7 @@
         <v>51600</v>
       </c>
       <c r="K234" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>113800</v>
@@ -12213,7 +12235,7 @@
         <v>51700</v>
       </c>
       <c r="K235" t="n">
-        <v>-30.76923076923077</v>
+        <v>-50</v>
       </c>
       <c r="L235" t="n">
         <v>113780</v>
@@ -12264,7 +12286,7 @@
         <v>51800</v>
       </c>
       <c r="K236" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L236" t="n">
         <v>113750</v>
@@ -12315,7 +12337,7 @@
         <v>51800</v>
       </c>
       <c r="K237" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L237" t="n">
         <v>113720</v>
@@ -12366,7 +12388,7 @@
         <v>51800</v>
       </c>
       <c r="K238" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>113690</v>
@@ -12468,7 +12490,7 @@
         <v>51800</v>
       </c>
       <c r="K240" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>113670</v>
@@ -12519,7 +12541,7 @@
         <v>51800</v>
       </c>
       <c r="K241" t="n">
-        <v>-81.81818181818183</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>113660</v>
@@ -12570,7 +12592,7 @@
         <v>51900</v>
       </c>
       <c r="K242" t="n">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="L242" t="n">
         <v>113640</v>
@@ -12621,7 +12643,7 @@
         <v>51900</v>
       </c>
       <c r="K243" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L243" t="n">
         <v>113610</v>
@@ -12672,7 +12694,7 @@
         <v>52000</v>
       </c>
       <c r="K244" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>113590</v>
@@ -12723,7 +12745,7 @@
         <v>52000</v>
       </c>
       <c r="K245" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>113580</v>
@@ -12774,7 +12796,7 @@
         <v>52100</v>
       </c>
       <c r="K246" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>113570</v>
@@ -12825,7 +12847,7 @@
         <v>52500</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L247" t="n">
         <v>113600</v>
@@ -12876,7 +12898,7 @@
         <v>52700</v>
       </c>
       <c r="K248" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L248" t="n">
         <v>113610</v>
@@ -12927,7 +12949,7 @@
         <v>53000</v>
       </c>
       <c r="K249" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>113650</v>
@@ -12978,7 +13000,7 @@
         <v>53200</v>
       </c>
       <c r="K250" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>113670</v>
@@ -13029,7 +13051,7 @@
         <v>53500</v>
       </c>
       <c r="K251" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>113660</v>
@@ -13080,7 +13102,7 @@
         <v>53500</v>
       </c>
       <c r="K252" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>113660</v>
@@ -13131,7 +13153,7 @@
         <v>53500</v>
       </c>
       <c r="K253" t="n">
-        <v>-15.78947368421053</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L253" t="n">
         <v>113660</v>
@@ -13182,7 +13204,7 @@
         <v>53800</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L254" t="n">
         <v>113680</v>
@@ -13233,7 +13255,7 @@
         <v>54200</v>
       </c>
       <c r="K255" t="n">
-        <v>-12</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L255" t="n">
         <v>113660</v>
@@ -13284,7 +13306,7 @@
         <v>54400</v>
       </c>
       <c r="K256" t="n">
-        <v>-15.38461538461539</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L256" t="n">
         <v>113630</v>
@@ -13335,7 +13357,7 @@
         <v>54800</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L257" t="n">
         <v>113600</v>
@@ -13386,7 +13408,7 @@
         <v>55400</v>
       </c>
       <c r="K258" t="n">
-        <v>-16.66666666666666</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L258" t="n">
         <v>113530</v>
@@ -13437,7 +13459,7 @@
         <v>55500</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.51351351351351</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L259" t="n">
         <v>113440</v>
@@ -13488,7 +13510,7 @@
         <v>56200</v>
       </c>
       <c r="K260" t="n">
-        <v>-27.27272727272727</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L260" t="n">
         <v>113300</v>
@@ -13539,7 +13561,7 @@
         <v>56400</v>
       </c>
       <c r="K261" t="n">
-        <v>-30.43478260869566</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L261" t="n">
         <v>113170</v>
@@ -13590,7 +13612,7 @@
         <v>56600</v>
       </c>
       <c r="K262" t="n">
-        <v>-23.40425531914894</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L262" t="n">
         <v>113060</v>
@@ -13641,7 +13663,7 @@
         <v>56800</v>
       </c>
       <c r="K263" t="n">
-        <v>-26.53061224489796</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L263" t="n">
         <v>112930</v>
@@ -13692,7 +13714,7 @@
         <v>57000</v>
       </c>
       <c r="K264" t="n">
-        <v>-24</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L264" t="n">
         <v>112790</v>
@@ -13743,7 +13765,7 @@
         <v>57100</v>
       </c>
       <c r="K265" t="n">
-        <v>-25.49019607843137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>112680</v>
@@ -13794,7 +13816,7 @@
         <v>57100</v>
       </c>
       <c r="K266" t="n">
-        <v>-24</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L266" t="n">
         <v>112590</v>
@@ -13845,7 +13867,7 @@
         <v>57400</v>
       </c>
       <c r="K267" t="n">
-        <v>-26.53061224489796</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>112490</v>
@@ -13896,7 +13918,7 @@
         <v>57500</v>
       </c>
       <c r="K268" t="n">
-        <v>-20.83333333333334</v>
+        <v>-20</v>
       </c>
       <c r="L268" t="n">
         <v>112460</v>
@@ -13947,7 +13969,7 @@
         <v>57600</v>
       </c>
       <c r="K269" t="n">
-        <v>-30.43478260869566</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L269" t="n">
         <v>112410</v>
@@ -13998,7 +14020,7 @@
         <v>57700</v>
       </c>
       <c r="K270" t="n">
-        <v>-24.44444444444444</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L270" t="n">
         <v>112440</v>
@@ -14049,7 +14071,7 @@
         <v>57800</v>
       </c>
       <c r="K271" t="n">
-        <v>-20.93023255813954</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L271" t="n">
         <v>112480</v>
@@ -14100,7 +14122,7 @@
         <v>58100</v>
       </c>
       <c r="K272" t="n">
-        <v>-26.08695652173913</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L272" t="n">
         <v>112470</v>
@@ -14151,7 +14173,7 @@
         <v>58100</v>
       </c>
       <c r="K273" t="n">
-        <v>-26.08695652173913</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L273" t="n">
         <v>112480</v>
@@ -14202,7 +14224,7 @@
         <v>58400</v>
       </c>
       <c r="K274" t="n">
-        <v>-26.08695652173913</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L274" t="n">
         <v>112500</v>
@@ -14253,7 +14275,7 @@
         <v>58700</v>
       </c>
       <c r="K275" t="n">
-        <v>-24.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>112500</v>
@@ -14304,7 +14326,7 @@
         <v>58800</v>
       </c>
       <c r="K276" t="n">
-        <v>-22.72727272727273</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L276" t="n">
         <v>112490</v>
@@ -14355,7 +14377,7 @@
         <v>58800</v>
       </c>
       <c r="K277" t="n">
-        <v>-35</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L277" t="n">
         <v>112450</v>
@@ -14406,7 +14428,7 @@
         <v>58800</v>
       </c>
       <c r="K278" t="n">
-        <v>-23.52941176470588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>112400</v>
@@ -14457,7 +14479,7 @@
         <v>58900</v>
       </c>
       <c r="K279" t="n">
-        <v>-23.52941176470588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>112370</v>
@@ -14508,7 +14530,7 @@
         <v>59000</v>
       </c>
       <c r="K280" t="n">
-        <v>-7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>112320</v>
@@ -14559,7 +14581,7 @@
         <v>59100</v>
       </c>
       <c r="K281" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>112290</v>
@@ -14610,7 +14632,7 @@
         <v>59200</v>
       </c>
       <c r="K282" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L282" t="n">
         <v>112280</v>
@@ -14661,7 +14683,7 @@
         <v>59200</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L283" t="n">
         <v>112270</v>
@@ -14712,7 +14734,7 @@
         <v>59500</v>
       </c>
       <c r="K284" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L284" t="n">
         <v>112260</v>
@@ -14763,7 +14785,7 @@
         <v>59700</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L285" t="n">
         <v>112260</v>
@@ -14814,7 +14836,7 @@
         <v>59700</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L286" t="n">
         <v>112270</v>
@@ -14865,7 +14887,7 @@
         <v>59700</v>
       </c>
       <c r="K287" t="n">
-        <v>-13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L287" t="n">
         <v>112280</v>
@@ -14916,7 +14938,7 @@
         <v>59800</v>
       </c>
       <c r="K288" t="n">
-        <v>-21.73913043478261</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L288" t="n">
         <v>112280</v>
@@ -14967,7 +14989,7 @@
         <v>59800</v>
       </c>
       <c r="K289" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>112270</v>
@@ -15018,7 +15040,7 @@
         <v>59800</v>
       </c>
       <c r="K290" t="n">
-        <v>-23.80952380952381</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L290" t="n">
         <v>112270</v>
@@ -15069,7 +15091,7 @@
         <v>59800</v>
       </c>
       <c r="K291" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>112260</v>
@@ -15120,7 +15142,7 @@
         <v>59800</v>
       </c>
       <c r="K292" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>112260</v>
@@ -15171,7 +15193,7 @@
         <v>59900</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L293" t="n">
         <v>112270</v>
@@ -15222,7 +15244,7 @@
         <v>60200</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L294" t="n">
         <v>112280</v>
@@ -15273,7 +15295,7 @@
         <v>60600</v>
       </c>
       <c r="K295" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L295" t="n">
         <v>112270</v>
@@ -15324,7 +15346,7 @@
         <v>60800</v>
       </c>
       <c r="K296" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L296" t="n">
         <v>112240</v>
@@ -15375,7 +15397,7 @@
         <v>60800</v>
       </c>
       <c r="K297" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L297" t="n">
         <v>112210</v>
@@ -15426,7 +15448,7 @@
         <v>60900</v>
       </c>
       <c r="K298" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L298" t="n">
         <v>112180</v>
@@ -15477,7 +15499,7 @@
         <v>60900</v>
       </c>
       <c r="K299" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L299" t="n">
         <v>112150</v>
@@ -15528,7 +15550,7 @@
         <v>60900</v>
       </c>
       <c r="K300" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L300" t="n">
         <v>112120</v>
@@ -15579,7 +15601,7 @@
         <v>61200</v>
       </c>
       <c r="K301" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L301" t="n">
         <v>112060</v>
@@ -15630,7 +15652,7 @@
         <v>61600</v>
       </c>
       <c r="K302" t="n">
-        <v>-8.333333333333332</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L302" t="n">
         <v>112040</v>
@@ -15681,7 +15703,7 @@
         <v>61700</v>
       </c>
       <c r="K303" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>112020</v>
@@ -15732,7 +15754,7 @@
         <v>62000</v>
       </c>
       <c r="K304" t="n">
-        <v>-28</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L304" t="n">
         <v>111940</v>
@@ -15783,7 +15805,7 @@
         <v>62000</v>
       </c>
       <c r="K305" t="n">
-        <v>-21.73913043478261</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L305" t="n">
         <v>111900</v>
@@ -15834,7 +15856,7 @@
         <v>62300</v>
       </c>
       <c r="K306" t="n">
-        <v>-7.692307692307693</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L306" t="n">
         <v>111910</v>
@@ -15885,7 +15907,7 @@
         <v>62300</v>
       </c>
       <c r="K307" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L307" t="n">
         <v>111920</v>
@@ -15936,7 +15958,7 @@
         <v>62600</v>
       </c>
       <c r="K308" t="n">
-        <v>-14.28571428571428</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L308" t="n">
         <v>111910</v>
@@ -15987,7 +16009,7 @@
         <v>62800</v>
       </c>
       <c r="K309" t="n">
-        <v>-6.666666666666667</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L309" t="n">
         <v>111920</v>
@@ -16038,7 +16060,7 @@
         <v>63000</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>111950</v>
@@ -16089,7 +16111,7 @@
         <v>63300</v>
       </c>
       <c r="K311" t="n">
-        <v>8.571428571428571</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L311" t="n">
         <v>112040</v>
@@ -16140,7 +16162,7 @@
         <v>63400</v>
       </c>
       <c r="K312" t="n">
-        <v>5.555555555555555</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L312" t="n">
         <v>112080</v>
@@ -16191,7 +16213,7 @@
         <v>63500</v>
       </c>
       <c r="K313" t="n">
-        <v>5.555555555555555</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L313" t="n">
         <v>112120</v>
@@ -16242,7 +16264,7 @@
         <v>63800</v>
       </c>
       <c r="K314" t="n">
-        <v>-11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L314" t="n">
         <v>112160</v>
@@ -16293,7 +16315,7 @@
         <v>64000</v>
       </c>
       <c r="K315" t="n">
-        <v>5.88235294117647</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L315" t="n">
         <v>112220</v>
@@ -16344,7 +16366,7 @@
         <v>64000</v>
       </c>
       <c r="K316" t="n">
-        <v>12.5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L316" t="n">
         <v>112250</v>
@@ -16395,7 +16417,7 @@
         <v>64200</v>
       </c>
       <c r="K317" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L317" t="n">
         <v>112260</v>
@@ -16446,7 +16468,7 @@
         <v>64500</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L318" t="n">
         <v>112270</v>
@@ -16497,7 +16519,7 @@
         <v>64600</v>
       </c>
       <c r="K319" t="n">
-        <v>2.702702702702703</v>
+        <v>-12.5</v>
       </c>
       <c r="L319" t="n">
         <v>112270</v>
@@ -16548,7 +16570,7 @@
         <v>64700</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L320" t="n">
         <v>112240</v>
@@ -16599,7 +16621,7 @@
         <v>64800</v>
       </c>
       <c r="K321" t="n">
-        <v>11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L321" t="n">
         <v>112190</v>
@@ -16650,7 +16672,7 @@
         <v>65000</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.88235294117647</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L322" t="n">
         <v>112130</v>
@@ -16701,7 +16723,7 @@
         <v>65300</v>
       </c>
       <c r="K323" t="n">
-        <v>-16.66666666666666</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L323" t="n">
         <v>112030</v>
@@ -16752,7 +16774,7 @@
         <v>65600</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="L324" t="n">
         <v>111990</v>
@@ -16803,7 +16825,7 @@
         <v>65800</v>
       </c>
       <c r="K325" t="n">
-        <v>-5.263157894736842</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L325" t="n">
         <v>111910</v>
@@ -16854,7 +16876,7 @@
         <v>66000</v>
       </c>
       <c r="K326" t="n">
-        <v>-18.91891891891892</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L326" t="n">
         <v>111810</v>
@@ -16905,7 +16927,7 @@
         <v>66200</v>
       </c>
       <c r="K327" t="n">
-        <v>-12.82051282051282</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L327" t="n">
         <v>111750</v>
@@ -16956,7 +16978,7 @@
         <v>66300</v>
       </c>
       <c r="K328" t="n">
-        <v>-2.702702702702703</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L328" t="n">
         <v>111730</v>
@@ -17007,7 +17029,7 @@
         <v>66600</v>
       </c>
       <c r="K329" t="n">
-        <v>-15.78947368421053</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L329" t="n">
         <v>111670</v>
@@ -17058,7 +17080,7 @@
         <v>66600</v>
       </c>
       <c r="K330" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>111620</v>
@@ -17109,7 +17131,7 @@
         <v>67000</v>
       </c>
       <c r="K331" t="n">
-        <v>-18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>111600</v>
@@ -17160,7 +17182,7 @@
         <v>67100</v>
       </c>
       <c r="K332" t="n">
-        <v>-18.91891891891892</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L332" t="n">
         <v>111590</v>
@@ -17211,7 +17233,7 @@
         <v>67100</v>
       </c>
       <c r="K333" t="n">
-        <v>-22.22222222222222</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L333" t="n">
         <v>111610</v>
@@ -17262,7 +17284,7 @@
         <v>67100</v>
       </c>
       <c r="K334" t="n">
-        <v>-15.15151515151515</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L334" t="n">
         <v>111600</v>
@@ -17313,7 +17335,7 @@
         <v>67400</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.76470588235294</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L335" t="n">
         <v>111640</v>
@@ -17364,7 +17386,7 @@
         <v>67600</v>
       </c>
       <c r="K336" t="n">
-        <v>-5.555555555555555</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L336" t="n">
         <v>111720</v>
@@ -17415,7 +17437,7 @@
         <v>67700</v>
       </c>
       <c r="K337" t="n">
-        <v>2.857142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L337" t="n">
         <v>111790</v>
@@ -17466,7 +17488,7 @@
         <v>68000</v>
       </c>
       <c r="K338" t="n">
-        <v>2.857142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L338" t="n">
         <v>111820</v>
@@ -17517,7 +17539,7 @@
         <v>68400</v>
       </c>
       <c r="K339" t="n">
-        <v>10.52631578947368</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L339" t="n">
         <v>111920</v>
@@ -17568,7 +17590,7 @@
         <v>68500</v>
       </c>
       <c r="K340" t="n">
-        <v>10.52631578947368</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>112010</v>
@@ -17619,7 +17641,7 @@
         <v>68700</v>
       </c>
       <c r="K341" t="n">
-        <v>12.82051282051282</v>
+        <v>50</v>
       </c>
       <c r="L341" t="n">
         <v>112080</v>
@@ -17670,7 +17692,7 @@
         <v>69000</v>
       </c>
       <c r="K342" t="n">
-        <v>10</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L342" t="n">
         <v>112130</v>
@@ -17721,7 +17743,7 @@
         <v>69400</v>
       </c>
       <c r="K343" t="n">
-        <v>26.82926829268293</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L343" t="n">
         <v>112220</v>
@@ -17772,7 +17794,7 @@
         <v>69800</v>
       </c>
       <c r="K344" t="n">
-        <v>9.523809523809524</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L344" t="n">
         <v>112270</v>
@@ -17823,7 +17845,7 @@
         <v>70200</v>
       </c>
       <c r="K345" t="n">
-        <v>22.72727272727273</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L345" t="n">
         <v>112330</v>
@@ -17874,7 +17896,7 @@
         <v>70700</v>
       </c>
       <c r="K346" t="n">
-        <v>14.8936170212766</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L346" t="n">
         <v>112320</v>
@@ -17925,7 +17947,7 @@
         <v>70900</v>
       </c>
       <c r="K347" t="n">
-        <v>14.8936170212766</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L347" t="n">
         <v>112320</v>
@@ -17976,7 +17998,7 @@
         <v>71000</v>
       </c>
       <c r="K348" t="n">
-        <v>14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>112360</v>
@@ -18027,7 +18049,7 @@
         <v>71400</v>
       </c>
       <c r="K349" t="n">
-        <v>29.16666666666667</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L349" t="n">
         <v>112400</v>
@@ -18078,7 +18100,7 @@
         <v>71500</v>
       </c>
       <c r="K350" t="n">
-        <v>26.53061224489796</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L350" t="n">
         <v>112440</v>
@@ -18180,7 +18202,7 @@
         <v>71600</v>
       </c>
       <c r="K352" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>112500</v>
@@ -18231,7 +18253,7 @@
         <v>71900</v>
       </c>
       <c r="K353" t="n">
-        <v>12.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L353" t="n">
         <v>112470</v>
@@ -18282,7 +18304,7 @@
         <v>72000</v>
       </c>
       <c r="K354" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L354" t="n">
         <v>112490</v>
@@ -18333,7 +18355,7 @@
         <v>72300</v>
       </c>
       <c r="K355" t="n">
-        <v>14.28571428571428</v>
+        <v>37.5</v>
       </c>
       <c r="L355" t="n">
         <v>112500</v>
@@ -18384,7 +18406,7 @@
         <v>72500</v>
       </c>
       <c r="K356" t="n">
-        <v>6.122448979591836</v>
+        <v>12.5</v>
       </c>
       <c r="L356" t="n">
         <v>112540</v>
@@ -18435,7 +18457,7 @@
         <v>72500</v>
       </c>
       <c r="K357" t="n">
-        <v>4.166666666666666</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L357" t="n">
         <v>112560</v>
@@ -18486,7 +18508,7 @@
         <v>72500</v>
       </c>
       <c r="K358" t="n">
-        <v>11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L358" t="n">
         <v>112570</v>
@@ -18537,7 +18559,7 @@
         <v>72600</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L359" t="n">
         <v>112530</v>
@@ -18588,7 +18610,7 @@
         <v>72700</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>112490</v>
@@ -18639,7 +18661,7 @@
         <v>72900</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.523809523809524</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L361" t="n">
         <v>112430</v>
@@ -18690,7 +18712,7 @@
         <v>72900</v>
       </c>
       <c r="K362" t="n">
-        <v>-2.564102564102564</v>
+        <v>-20</v>
       </c>
       <c r="L362" t="n">
         <v>112380</v>
@@ -18741,7 +18763,7 @@
         <v>73300</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.564102564102564</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L363" t="n">
         <v>112400</v>
@@ -18792,7 +18814,7 @@
         <v>73300</v>
       </c>
       <c r="K364" t="n">
-        <v>8.571428571428571</v>
+        <v>-20</v>
       </c>
       <c r="L364" t="n">
         <v>112410</v>
@@ -18843,7 +18865,7 @@
         <v>73800</v>
       </c>
       <c r="K365" t="n">
-        <v>-16.66666666666666</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L365" t="n">
         <v>112340</v>
@@ -18894,7 +18916,7 @@
         <v>74300</v>
       </c>
       <c r="K366" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>112340</v>
@@ -18945,7 +18967,7 @@
         <v>74300</v>
       </c>
       <c r="K367" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>112340</v>
@@ -18996,7 +19018,7 @@
         <v>74400</v>
       </c>
       <c r="K368" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L368" t="n">
         <v>112350</v>
@@ -19047,7 +19069,7 @@
         <v>74500</v>
       </c>
       <c r="K369" t="n">
-        <v>-9.67741935483871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L369" t="n">
         <v>112360</v>
@@ -19098,7 +19120,7 @@
         <v>74500</v>
       </c>
       <c r="K370" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L370" t="n">
         <v>112380</v>
@@ -19149,7 +19171,7 @@
         <v>74500</v>
       </c>
       <c r="K371" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L371" t="n">
         <v>112420</v>
@@ -19200,7 +19222,7 @@
         <v>74500</v>
       </c>
       <c r="K372" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>112460</v>
@@ -19251,7 +19273,7 @@
         <v>74500</v>
       </c>
       <c r="K373" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>112460</v>
@@ -19302,7 +19324,7 @@
         <v>74600</v>
       </c>
       <c r="K374" t="n">
-        <v>7.692307692307693</v>
+        <v>75</v>
       </c>
       <c r="L374" t="n">
         <v>112470</v>
@@ -19353,7 +19375,7 @@
         <v>74600</v>
       </c>
       <c r="K375" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>112530</v>
@@ -19404,7 +19426,7 @@
         <v>74600</v>
       </c>
       <c r="K376" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>112540</v>
@@ -19455,7 +19477,7 @@
         <v>74600</v>
       </c>
       <c r="K377" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>112550</v>
@@ -19506,7 +19528,7 @@
         <v>74600</v>
       </c>
       <c r="K378" t="n">
-        <v>4.761904761904762</v>
+        <v>100</v>
       </c>
       <c r="L378" t="n">
         <v>112550</v>
@@ -19557,7 +19579,7 @@
         <v>74600</v>
       </c>
       <c r="K379" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L379" t="n">
         <v>112560</v>
@@ -19608,7 +19630,7 @@
         <v>74600</v>
       </c>
       <c r="K380" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L380" t="n">
         <v>112570</v>
@@ -19659,7 +19681,7 @@
         <v>74600</v>
       </c>
       <c r="K381" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L381" t="n">
         <v>112580</v>
@@ -19710,7 +19732,7 @@
         <v>74600</v>
       </c>
       <c r="K382" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>112590</v>
@@ -19760,9 +19782,7 @@
       <c r="J383" t="n">
         <v>74600</v>
       </c>
-      <c r="K383" t="n">
-        <v>7.692307692307693</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>112600</v>
       </c>
@@ -19812,7 +19832,7 @@
         <v>74800</v>
       </c>
       <c r="K384" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>112620</v>
@@ -19863,7 +19883,7 @@
         <v>74900</v>
       </c>
       <c r="K385" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L385" t="n">
         <v>112650</v>
@@ -19914,7 +19934,7 @@
         <v>75200</v>
       </c>
       <c r="K386" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>112650</v>
@@ -19965,7 +19985,7 @@
         <v>75600</v>
       </c>
       <c r="K387" t="n">
-        <v>38.46153846153847</v>
+        <v>40</v>
       </c>
       <c r="L387" t="n">
         <v>112690</v>
@@ -20016,7 +20036,7 @@
         <v>75700</v>
       </c>
       <c r="K388" t="n">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L388" t="n">
         <v>112740</v>
@@ -20067,7 +20087,7 @@
         <v>75800</v>
       </c>
       <c r="K389" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L389" t="n">
         <v>112800</v>
@@ -20118,7 +20138,7 @@
         <v>75800</v>
       </c>
       <c r="K390" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L390" t="n">
         <v>112860</v>
@@ -20169,7 +20189,7 @@
         <v>75800</v>
       </c>
       <c r="K391" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>112920</v>
@@ -20220,7 +20240,7 @@
         <v>75800</v>
       </c>
       <c r="K392" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L392" t="n">
         <v>112980</v>
@@ -20271,7 +20291,7 @@
         <v>76100</v>
       </c>
       <c r="K393" t="n">
-        <v>25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L393" t="n">
         <v>113010</v>
@@ -20322,7 +20342,7 @@
         <v>76100</v>
       </c>
       <c r="K394" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>113020</v>
@@ -20373,7 +20393,7 @@
         <v>76400</v>
       </c>
       <c r="K395" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L395" t="n">
         <v>113050</v>
@@ -20424,7 +20444,7 @@
         <v>76700</v>
       </c>
       <c r="K396" t="n">
-        <v>14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L396" t="n">
         <v>113080</v>
@@ -20475,7 +20495,7 @@
         <v>77200</v>
       </c>
       <c r="K397" t="n">
-        <v>-7.692307692307693</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L397" t="n">
         <v>113020</v>
@@ -20526,7 +20546,7 @@
         <v>77700</v>
       </c>
       <c r="K398" t="n">
-        <v>9.67741935483871</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L398" t="n">
         <v>113000</v>
@@ -20577,7 +20597,7 @@
         <v>77700</v>
       </c>
       <c r="K399" t="n">
-        <v>9.67741935483871</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L399" t="n">
         <v>112970</v>
@@ -20628,7 +20648,7 @@
         <v>77700</v>
       </c>
       <c r="K400" t="n">
-        <v>9.67741935483871</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L400" t="n">
         <v>112940</v>
@@ -20679,7 +20699,7 @@
         <v>77900</v>
       </c>
       <c r="K401" t="n">
-        <v>3.03030303030303</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L401" t="n">
         <v>112890</v>
@@ -20730,7 +20750,7 @@
         <v>78100</v>
       </c>
       <c r="K402" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>112860</v>
@@ -20781,7 +20801,7 @@
         <v>78100</v>
       </c>
       <c r="K403" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>112860</v>
@@ -20832,7 +20852,7 @@
         <v>78100</v>
       </c>
       <c r="K404" t="n">
-        <v>3.03030303030303</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L404" t="n">
         <v>112860</v>
@@ -20883,7 +20903,7 @@
         <v>78300</v>
       </c>
       <c r="K405" t="n">
-        <v>-5.88235294117647</v>
+        <v>-12.5</v>
       </c>
       <c r="L405" t="n">
         <v>112810</v>
@@ -20934,7 +20954,7 @@
         <v>78500</v>
       </c>
       <c r="K406" t="n">
-        <v>9.090909090909092</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L406" t="n">
         <v>112810</v>
@@ -20985,7 +21005,7 @@
         <v>78500</v>
       </c>
       <c r="K407" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>112860</v>
@@ -21036,7 +21056,7 @@
         <v>78700</v>
       </c>
       <c r="K408" t="n">
-        <v>-13.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L408" t="n">
         <v>112840</v>
@@ -21087,7 +21107,7 @@
         <v>79000</v>
       </c>
       <c r="K409" t="n">
-        <v>-6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L409" t="n">
         <v>112850</v>
@@ -21138,7 +21158,7 @@
         <v>79100</v>
       </c>
       <c r="K410" t="n">
-        <v>-9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L410" t="n">
         <v>112850</v>
@@ -21189,7 +21209,7 @@
         <v>79400</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L411" t="n">
         <v>112840</v>
@@ -21240,7 +21260,7 @@
         <v>79500</v>
       </c>
       <c r="K412" t="n">
-        <v>-18.91891891891892</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L412" t="n">
         <v>112800</v>
@@ -21291,7 +21311,7 @@
         <v>80200</v>
       </c>
       <c r="K413" t="n">
-        <v>-26.82926829268293</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L413" t="n">
         <v>112690</v>
@@ -21342,7 +21362,7 @@
         <v>80300</v>
       </c>
       <c r="K414" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L414" t="n">
         <v>112590</v>
@@ -21393,7 +21413,7 @@
         <v>80500</v>
       </c>
       <c r="K415" t="n">
-        <v>-26.82926829268293</v>
+        <v>-40</v>
       </c>
       <c r="L415" t="n">
         <v>112530</v>
@@ -21444,7 +21464,7 @@
         <v>81000</v>
       </c>
       <c r="K416" t="n">
-        <v>-6.976744186046512</v>
+        <v>-12</v>
       </c>
       <c r="L416" t="n">
         <v>112500</v>
@@ -21495,7 +21515,7 @@
         <v>81700</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.11111111111111</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L417" t="n">
         <v>112400</v>
@@ -21546,7 +21566,7 @@
         <v>82100</v>
       </c>
       <c r="K418" t="n">
-        <v>-13.63636363636363</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L418" t="n">
         <v>112360</v>
@@ -21597,7 +21617,7 @@
         <v>82200</v>
       </c>
       <c r="K419" t="n">
-        <v>-15.55555555555556</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L419" t="n">
         <v>112280</v>
@@ -21648,7 +21668,7 @@
         <v>82300</v>
       </c>
       <c r="K420" t="n">
-        <v>-17.39130434782609</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L420" t="n">
         <v>112200</v>
@@ -21699,7 +21719,7 @@
         <v>82300</v>
       </c>
       <c r="K421" t="n">
-        <v>-13.63636363636363</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L421" t="n">
         <v>112150</v>
@@ -21750,7 +21770,7 @@
         <v>82300</v>
       </c>
       <c r="K422" t="n">
-        <v>-19.04761904761905</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L422" t="n">
         <v>112110</v>
@@ -21801,7 +21821,7 @@
         <v>82300</v>
       </c>
       <c r="K423" t="n">
-        <v>-19.04761904761905</v>
+        <v>10</v>
       </c>
       <c r="L423" t="n">
         <v>112140</v>
@@ -21852,7 +21872,7 @@
         <v>82300</v>
       </c>
       <c r="K424" t="n">
-        <v>-19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>112160</v>
@@ -21903,7 +21923,7 @@
         <v>82600</v>
       </c>
       <c r="K425" t="n">
-        <v>-20.93023255813954</v>
+        <v>-50</v>
       </c>
       <c r="L425" t="n">
         <v>112130</v>
@@ -21954,7 +21974,7 @@
         <v>82700</v>
       </c>
       <c r="K426" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>112040</v>
@@ -22005,7 +22025,7 @@
         <v>82800</v>
       </c>
       <c r="K427" t="n">
-        <v>-25.58139534883721</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L427" t="n">
         <v>112030</v>
@@ -22056,7 +22076,7 @@
         <v>83100</v>
       </c>
       <c r="K428" t="n">
-        <v>-27.27272727272727</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L428" t="n">
         <v>111950</v>
@@ -22107,7 +22127,7 @@
         <v>83100</v>
       </c>
       <c r="K429" t="n">
-        <v>-36.58536585365854</v>
+        <v>-75</v>
       </c>
       <c r="L429" t="n">
         <v>111880</v>
@@ -22158,7 +22178,7 @@
         <v>83400</v>
       </c>
       <c r="K430" t="n">
-        <v>-39.53488372093023</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L430" t="n">
         <v>111790</v>
@@ -22209,7 +22229,7 @@
         <v>83500</v>
       </c>
       <c r="K431" t="n">
-        <v>-36.58536585365854</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L431" t="n">
         <v>111690</v>
@@ -22260,7 +22280,7 @@
         <v>83700</v>
       </c>
       <c r="K432" t="n">
-        <v>-38.09523809523809</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L432" t="n">
         <v>111570</v>
@@ -22311,7 +22331,7 @@
         <v>84100</v>
       </c>
       <c r="K433" t="n">
-        <v>-12.82051282051282</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L433" t="n">
         <v>111490</v>
@@ -22362,7 +22382,7 @@
         <v>84300</v>
       </c>
       <c r="K434" t="n">
-        <v>-10</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L434" t="n">
         <v>111430</v>
@@ -22413,7 +22433,7 @@
         <v>84300</v>
       </c>
       <c r="K435" t="n">
-        <v>-15.78947368421053</v>
+        <v>-12.5</v>
       </c>
       <c r="L435" t="n">
         <v>111400</v>
@@ -22464,7 +22484,7 @@
         <v>84400</v>
       </c>
       <c r="K436" t="n">
-        <v>-29.41176470588236</v>
+        <v>-12.5</v>
       </c>
       <c r="L436" t="n">
         <v>111390</v>
@@ -22515,7 +22535,7 @@
         <v>84500</v>
       </c>
       <c r="K437" t="n">
-        <v>-7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L437" t="n">
         <v>111380</v>
@@ -22566,7 +22586,7 @@
         <v>84700</v>
       </c>
       <c r="K438" t="n">
-        <v>-30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>111380</v>
@@ -22617,7 +22637,7 @@
         <v>84800</v>
       </c>
       <c r="K439" t="n">
-        <v>-23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L439" t="n">
         <v>111390</v>
@@ -22668,7 +22688,7 @@
         <v>85200</v>
       </c>
       <c r="K440" t="n">
-        <v>-31.03448275862069</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L440" t="n">
         <v>111390</v>
@@ -22719,7 +22739,7 @@
         <v>85200</v>
       </c>
       <c r="K441" t="n">
-        <v>-31.03448275862069</v>
+        <v>20</v>
       </c>
       <c r="L441" t="n">
         <v>111400</v>
@@ -22770,7 +22790,7 @@
         <v>85300</v>
       </c>
       <c r="K442" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>111420</v>
@@ -22821,7 +22841,7 @@
         <v>85300</v>
       </c>
       <c r="K443" t="n">
-        <v>-33.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L443" t="n">
         <v>111400</v>
@@ -22872,7 +22892,7 @@
         <v>85600</v>
       </c>
       <c r="K444" t="n">
-        <v>-21.21212121212121</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L444" t="n">
         <v>111390</v>
@@ -22923,7 +22943,7 @@
         <v>86000</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L445" t="n">
         <v>111420</v>
@@ -22974,7 +22994,7 @@
         <v>86300</v>
       </c>
       <c r="K446" t="n">
-        <v>11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L446" t="n">
         <v>111470</v>
@@ -23025,7 +23045,7 @@
         <v>86800</v>
       </c>
       <c r="K447" t="n">
-        <v>20</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L447" t="n">
         <v>111560</v>
@@ -23076,7 +23096,7 @@
         <v>87200</v>
       </c>
       <c r="K448" t="n">
-        <v>17.07317073170732</v>
+        <v>25</v>
       </c>
       <c r="L448" t="n">
         <v>111630</v>
@@ -23127,7 +23147,7 @@
         <v>87400</v>
       </c>
       <c r="K449" t="n">
-        <v>20.93023255813954</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L449" t="n">
         <v>111710</v>
@@ -23178,7 +23198,7 @@
         <v>87500</v>
       </c>
       <c r="K450" t="n">
-        <v>31.70731707317073</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L450" t="n">
         <v>111840</v>
@@ -23229,7 +23249,7 @@
         <v>87900</v>
       </c>
       <c r="K451" t="n">
-        <v>22.72727272727273</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L451" t="n">
         <v>111930</v>
@@ -23280,7 +23300,7 @@
         <v>88000</v>
       </c>
       <c r="K452" t="n">
-        <v>25.58139534883721</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>112020</v>
@@ -23331,7 +23351,7 @@
         <v>88100</v>
       </c>
       <c r="K453" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L453" t="n">
         <v>112100</v>
@@ -23382,7 +23402,7 @@
         <v>88600</v>
       </c>
       <c r="K454" t="n">
-        <v>20.93023255813954</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L454" t="n">
         <v>112200</v>
@@ -23433,7 +23453,7 @@
         <v>89200</v>
       </c>
       <c r="K455" t="n">
-        <v>30.61224489795918</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L455" t="n">
         <v>112320</v>
@@ -23484,7 +23504,7 @@
         <v>89400</v>
       </c>
       <c r="K456" t="n">
-        <v>24</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L456" t="n">
         <v>112390</v>
@@ -23535,7 +23555,7 @@
         <v>89700</v>
       </c>
       <c r="K457" t="n">
-        <v>15.38461538461539</v>
+        <v>12</v>
       </c>
       <c r="L457" t="n">
         <v>112380</v>
@@ -23586,7 +23606,7 @@
         <v>90200</v>
       </c>
       <c r="K458" t="n">
-        <v>27.27272727272727</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L458" t="n">
         <v>112460</v>
@@ -23637,7 +23657,7 @@
         <v>90700</v>
       </c>
       <c r="K459" t="n">
-        <v>32.20338983050847</v>
+        <v>31.25</v>
       </c>
       <c r="L459" t="n">
         <v>112570</v>
@@ -23688,7 +23708,7 @@
         <v>90900</v>
       </c>
       <c r="K460" t="n">
-        <v>36.84210526315789</v>
+        <v>40</v>
       </c>
       <c r="L460" t="n">
         <v>112650</v>
@@ -23739,7 +23759,7 @@
         <v>91100</v>
       </c>
       <c r="K461" t="n">
-        <v>38.98305084745763</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L461" t="n">
         <v>112790</v>
@@ -23790,7 +23810,7 @@
         <v>91200</v>
       </c>
       <c r="K462" t="n">
-        <v>42.3728813559322</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L462" t="n">
         <v>112950</v>
@@ -23841,7 +23861,7 @@
         <v>91300</v>
       </c>
       <c r="K463" t="n">
-        <v>40</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L463" t="n">
         <v>113110</v>
@@ -23892,7 +23912,7 @@
         <v>91300</v>
       </c>
       <c r="K464" t="n">
-        <v>36.84210526315789</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L464" t="n">
         <v>113220</v>
@@ -23943,7 +23963,7 @@
         <v>91300</v>
       </c>
       <c r="K465" t="n">
-        <v>32.0754716981132</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L465" t="n">
         <v>113270</v>
@@ -23994,7 +24014,7 @@
         <v>91600</v>
       </c>
       <c r="K466" t="n">
-        <v>32.0754716981132</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L466" t="n">
         <v>113370</v>
@@ -24045,7 +24065,7 @@
         <v>91700</v>
       </c>
       <c r="K467" t="n">
-        <v>26.53061224489796</v>
+        <v>60</v>
       </c>
       <c r="L467" t="n">
         <v>113510</v>
@@ -24096,7 +24116,7 @@
         <v>91700</v>
       </c>
       <c r="K468" t="n">
-        <v>37.77777777777778</v>
+        <v>40</v>
       </c>
       <c r="L468" t="n">
         <v>113600</v>
@@ -24147,7 +24167,7 @@
         <v>91700</v>
       </c>
       <c r="K469" t="n">
-        <v>34.88372093023256</v>
+        <v>75</v>
       </c>
       <c r="L469" t="n">
         <v>113640</v>
@@ -24198,7 +24218,7 @@
         <v>92000</v>
       </c>
       <c r="K470" t="n">
-        <v>37.77777777777778</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L470" t="n">
         <v>113730</v>
@@ -24249,7 +24269,7 @@
         <v>92400</v>
       </c>
       <c r="K471" t="n">
-        <v>37.77777777777778</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L471" t="n">
         <v>113760</v>
@@ -24300,7 +24320,7 @@
         <v>92600</v>
       </c>
       <c r="K472" t="n">
-        <v>34.78260869565217</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L472" t="n">
         <v>113760</v>
@@ -24351,7 +24371,7 @@
         <v>93000</v>
       </c>
       <c r="K473" t="n">
-        <v>42.85714285714285</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L473" t="n">
         <v>113810</v>
@@ -24402,7 +24422,7 @@
         <v>93000</v>
       </c>
       <c r="K474" t="n">
-        <v>36.36363636363637</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L474" t="n">
         <v>113860</v>
@@ -24453,7 +24473,7 @@
         <v>93400</v>
       </c>
       <c r="K475" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L475" t="n">
         <v>113870</v>
@@ -24504,7 +24524,7 @@
         <v>93700</v>
       </c>
       <c r="K476" t="n">
-        <v>25.58139534883721</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>113880</v>
@@ -24555,7 +24575,7 @@
         <v>93800</v>
       </c>
       <c r="K477" t="n">
-        <v>36.58536585365854</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L477" t="n">
         <v>113890</v>
@@ -24606,7 +24626,7 @@
         <v>93800</v>
       </c>
       <c r="K478" t="n">
-        <v>27.77777777777778</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L478" t="n">
         <v>113900</v>
@@ -24657,7 +24677,7 @@
         <v>93800</v>
       </c>
       <c r="K479" t="n">
-        <v>16.12903225806452</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L479" t="n">
         <v>113910</v>
@@ -24708,7 +24728,7 @@
         <v>94000</v>
       </c>
       <c r="K480" t="n">
-        <v>29.03225806451613</v>
+        <v>25</v>
       </c>
       <c r="L480" t="n">
         <v>113910</v>
@@ -24759,7 +24779,7 @@
         <v>94200</v>
       </c>
       <c r="K481" t="n">
-        <v>16.12903225806452</v>
+        <v>25</v>
       </c>
       <c r="L481" t="n">
         <v>113930</v>
@@ -24810,7 +24830,7 @@
         <v>94500</v>
       </c>
       <c r="K482" t="n">
-        <v>21.21212121212121</v>
+        <v>20</v>
       </c>
       <c r="L482" t="n">
         <v>114000</v>
@@ -24861,7 +24881,7 @@
         <v>94500</v>
       </c>
       <c r="K483" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L483" t="n">
         <v>114030</v>
@@ -24912,7 +24932,7 @@
         <v>94600</v>
       </c>
       <c r="K484" t="n">
-        <v>21.21212121212121</v>
+        <v>50</v>
       </c>
       <c r="L484" t="n">
         <v>114050</v>
@@ -24963,7 +24983,7 @@
         <v>94600</v>
       </c>
       <c r="K485" t="n">
-        <v>21.21212121212121</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>114110</v>
@@ -25014,7 +25034,7 @@
         <v>95000</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L486" t="n">
         <v>114100</v>
@@ -25065,7 +25085,7 @@
         <v>95400</v>
       </c>
       <c r="K487" t="n">
-        <v>-13.51351351351351</v>
+        <v>-37.5</v>
       </c>
       <c r="L487" t="n">
         <v>114040</v>
@@ -25116,7 +25136,7 @@
         <v>95800</v>
       </c>
       <c r="K488" t="n">
-        <v>-2.439024390243902</v>
+        <v>-10</v>
       </c>
       <c r="L488" t="n">
         <v>114020</v>
@@ -25167,7 +25187,7 @@
         <v>96200</v>
       </c>
       <c r="K489" t="n">
-        <v>-11.11111111111111</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L489" t="n">
         <v>113960</v>
@@ -25218,7 +25238,7 @@
         <v>96200</v>
       </c>
       <c r="K490" t="n">
-        <v>-19.04761904761905</v>
+        <v>-30</v>
       </c>
       <c r="L490" t="n">
         <v>113880</v>
@@ -25269,7 +25289,7 @@
         <v>96500</v>
       </c>
       <c r="K491" t="n">
-        <v>-2.439024390243902</v>
+        <v>-30</v>
       </c>
       <c r="L491" t="n">
         <v>113850</v>
@@ -25320,7 +25340,7 @@
         <v>96900</v>
       </c>
       <c r="K492" t="n">
-        <v>11.62790697674419</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L492" t="n">
         <v>113830</v>
@@ -25371,7 +25391,7 @@
         <v>97000</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L493" t="n">
         <v>113800</v>
@@ -25422,7 +25442,7 @@
         <v>97100</v>
       </c>
       <c r="K494" t="n">
-        <v>-2.439024390243902</v>
+        <v>-12</v>
       </c>
       <c r="L494" t="n">
         <v>113770</v>
@@ -25473,7 +25493,7 @@
         <v>97100</v>
       </c>
       <c r="K495" t="n">
-        <v>8.108108108108109</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L495" t="n">
         <v>113740</v>
@@ -25524,7 +25544,7 @@
         <v>97100</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L496" t="n">
         <v>113750</v>
@@ -25575,7 +25595,7 @@
         <v>97300</v>
       </c>
       <c r="K497" t="n">
-        <v>2.857142857142857</v>
+        <v>20</v>
       </c>
       <c r="L497" t="n">
         <v>113820</v>
@@ -25626,7 +25646,7 @@
         <v>97300</v>
       </c>
       <c r="K498" t="n">
-        <v>2.857142857142857</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L498" t="n">
         <v>113850</v>
@@ -25677,7 +25697,7 @@
         <v>97300</v>
       </c>
       <c r="K499" t="n">
-        <v>2.857142857142857</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L499" t="n">
         <v>113920</v>
@@ -25728,7 +25748,7 @@
         <v>97300</v>
       </c>
       <c r="K500" t="n">
-        <v>-3.03030303030303</v>
+        <v>50</v>
       </c>
       <c r="L500" t="n">
         <v>113990</v>
@@ -25779,7 +25799,7 @@
         <v>97600</v>
       </c>
       <c r="K501" t="n">
-        <v>11.76470588235294</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L501" t="n">
         <v>114060</v>
@@ -25830,7 +25850,7 @@
         <v>97600</v>
       </c>
       <c r="K502" t="n">
-        <v>3.225806451612903</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L502" t="n">
         <v>114090</v>
@@ -25881,7 +25901,7 @@
         <v>97700</v>
       </c>
       <c r="K503" t="n">
-        <v>6.25</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>114140</v>
@@ -25932,7 +25952,7 @@
         <v>98000</v>
       </c>
       <c r="K504" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L504" t="n">
         <v>114230</v>
@@ -25983,7 +26003,7 @@
         <v>98000</v>
       </c>
       <c r="K505" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L505" t="n">
         <v>114320</v>
@@ -26034,7 +26054,7 @@
         <v>98300</v>
       </c>
       <c r="K506" t="n">
-        <v>21.21212121212121</v>
+        <v>40</v>
       </c>
       <c r="L506" t="n">
         <v>114380</v>
@@ -26085,7 +26105,7 @@
         <v>98800</v>
       </c>
       <c r="K507" t="n">
-        <v>47.05882352941176</v>
+        <v>60</v>
       </c>
       <c r="L507" t="n">
         <v>114470</v>
@@ -26136,7 +26156,7 @@
         <v>98900</v>
       </c>
       <c r="K508" t="n">
-        <v>41.93548387096774</v>
+        <v>62.5</v>
       </c>
       <c r="L508" t="n">
         <v>114570</v>
@@ -26187,7 +26207,7 @@
         <v>99000</v>
       </c>
       <c r="K509" t="n">
-        <v>57.14285714285714</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L509" t="n">
         <v>114660</v>
@@ -26238,7 +26258,7 @@
         <v>99000</v>
       </c>
       <c r="K510" t="n">
-        <v>57.14285714285714</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L510" t="n">
         <v>114750</v>
@@ -26289,7 +26309,7 @@
         <v>99000</v>
       </c>
       <c r="K511" t="n">
-        <v>52</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L511" t="n">
         <v>114810</v>
@@ -26340,7 +26360,7 @@
         <v>99100</v>
       </c>
       <c r="K512" t="n">
-        <v>36.36363636363637</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L512" t="n">
         <v>114860</v>
@@ -26391,7 +26411,7 @@
         <v>99100</v>
       </c>
       <c r="K513" t="n">
-        <v>42.85714285714285</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L513" t="n">
         <v>114900</v>
@@ -26442,7 +26462,7 @@
         <v>99100</v>
       </c>
       <c r="K514" t="n">
-        <v>50</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L514" t="n">
         <v>114910</v>
@@ -26493,7 +26513,7 @@
         <v>99200</v>
       </c>
       <c r="K515" t="n">
-        <v>52.38095238095239</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L515" t="n">
         <v>114930</v>
@@ -26544,7 +26564,7 @@
         <v>99300</v>
       </c>
       <c r="K516" t="n">
-        <v>45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L516" t="n">
         <v>114970</v>
@@ -26595,7 +26615,7 @@
         <v>99300</v>
       </c>
       <c r="K517" t="n">
-        <v>40</v>
+        <v>-50</v>
       </c>
       <c r="L517" t="n">
         <v>114960</v>
@@ -26646,7 +26666,7 @@
         <v>99300</v>
       </c>
       <c r="K518" t="n">
-        <v>40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L518" t="n">
         <v>114940</v>
@@ -26697,7 +26717,7 @@
         <v>99800</v>
       </c>
       <c r="K519" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L519" t="n">
         <v>114980</v>
@@ -26748,7 +26768,7 @@
         <v>99800</v>
       </c>
       <c r="K520" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L520" t="n">
         <v>115020</v>
@@ -26799,7 +26819,7 @@
         <v>100000</v>
       </c>
       <c r="K521" t="n">
-        <v>50</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L521" t="n">
         <v>115080</v>
@@ -26850,7 +26870,7 @@
         <v>100400</v>
       </c>
       <c r="K522" t="n">
-        <v>57.14285714285714</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L522" t="n">
         <v>115190</v>
@@ -26901,7 +26921,7 @@
         <v>100500</v>
       </c>
       <c r="K523" t="n">
-        <v>57.14285714285714</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L523" t="n">
         <v>115310</v>
@@ -26952,7 +26972,7 @@
         <v>100600</v>
       </c>
       <c r="K524" t="n">
-        <v>46.15384615384615</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L524" t="n">
         <v>115420</v>
@@ -27003,7 +27023,7 @@
         <v>101000</v>
       </c>
       <c r="K525" t="n">
-        <v>26.66666666666667</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L525" t="n">
         <v>115480</v>
@@ -27054,7 +27074,7 @@
         <v>101100</v>
       </c>
       <c r="K526" t="n">
-        <v>42.85714285714285</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L526" t="n">
         <v>115560</v>
@@ -27105,7 +27125,7 @@
         <v>101300</v>
       </c>
       <c r="K527" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L527" t="n">
         <v>115620</v>
@@ -27156,7 +27176,7 @@
         <v>101400</v>
       </c>
       <c r="K528" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="L528" t="n">
         <v>115690</v>
@@ -27207,7 +27227,7 @@
         <v>101700</v>
       </c>
       <c r="K529" t="n">
-        <v>33.33333333333333</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L529" t="n">
         <v>115740</v>
@@ -27258,7 +27278,7 @@
         <v>102200</v>
       </c>
       <c r="K530" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L530" t="n">
         <v>115740</v>
@@ -27309,7 +27329,7 @@
         <v>102400</v>
       </c>
       <c r="K531" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L531" t="n">
         <v>115740</v>
@@ -27360,7 +27380,7 @@
         <v>102400</v>
       </c>
       <c r="K532" t="n">
-        <v>21.21212121212121</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L532" t="n">
         <v>115700</v>
@@ -27411,7 +27431,7 @@
         <v>102900</v>
       </c>
       <c r="K533" t="n">
-        <v>31.57894736842105</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L533" t="n">
         <v>115700</v>
@@ -27462,7 +27482,7 @@
         <v>103000</v>
       </c>
       <c r="K534" t="n">
-        <v>28.2051282051282</v>
+        <v>20</v>
       </c>
       <c r="L534" t="n">
         <v>115700</v>
@@ -27513,7 +27533,7 @@
         <v>103200</v>
       </c>
       <c r="K535" t="n">
-        <v>30</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L535" t="n">
         <v>115760</v>
@@ -27564,7 +27584,7 @@
         <v>103400</v>
       </c>
       <c r="K536" t="n">
-        <v>36.58536585365854</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L536" t="n">
         <v>115830</v>
@@ -27615,7 +27635,7 @@
         <v>103500</v>
       </c>
       <c r="K537" t="n">
-        <v>38.09523809523809</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L537" t="n">
         <v>115930</v>
@@ -27666,7 +27686,7 @@
         <v>103900</v>
       </c>
       <c r="K538" t="n">
-        <v>43.47826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L538" t="n">
         <v>116060</v>
@@ -27717,7 +27737,7 @@
         <v>104100</v>
       </c>
       <c r="K539" t="n">
-        <v>30.23255813953488</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L539" t="n">
         <v>116140</v>
@@ -27768,7 +27788,7 @@
         <v>104300</v>
       </c>
       <c r="K540" t="n">
-        <v>33.33333333333333</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L540" t="n">
         <v>116290</v>
@@ -27819,7 +27839,7 @@
         <v>104400</v>
       </c>
       <c r="K541" t="n">
-        <v>31.81818181818182</v>
+        <v>70</v>
       </c>
       <c r="L541" t="n">
         <v>116430</v>
@@ -27870,7 +27890,7 @@
         <v>104600</v>
       </c>
       <c r="K542" t="n">
-        <v>28.57142857142857</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L542" t="n">
         <v>116590</v>
@@ -27921,7 +27941,7 @@
         <v>105100</v>
       </c>
       <c r="K543" t="n">
-        <v>34.78260869565217</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L543" t="n">
         <v>116750</v>
@@ -27972,7 +27992,7 @@
         <v>105400</v>
       </c>
       <c r="K544" t="n">
-        <v>29.16666666666667</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L544" t="n">
         <v>116890</v>
@@ -28023,7 +28043,7 @@
         <v>105500</v>
       </c>
       <c r="K545" t="n">
-        <v>37.77777777777778</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L545" t="n">
         <v>117000</v>
@@ -28074,7 +28094,7 @@
         <v>105700</v>
       </c>
       <c r="K546" t="n">
-        <v>30.43478260869566</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L546" t="n">
         <v>117070</v>
@@ -28125,7 +28145,7 @@
         <v>105800</v>
       </c>
       <c r="K547" t="n">
-        <v>33.33333333333333</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L547" t="n">
         <v>117120</v>
@@ -28176,7 +28196,7 @@
         <v>105800</v>
       </c>
       <c r="K548" t="n">
-        <v>31.81818181818182</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L548" t="n">
         <v>117130</v>
@@ -28227,7 +28247,7 @@
         <v>105900</v>
       </c>
       <c r="K549" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>117150</v>
@@ -28278,7 +28298,7 @@
         <v>106300</v>
       </c>
       <c r="K550" t="n">
-        <v>46.34146341463415</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L550" t="n">
         <v>117190</v>
@@ -28329,7 +28349,7 @@
         <v>106500</v>
       </c>
       <c r="K551" t="n">
-        <v>36.58536585365854</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L551" t="n">
         <v>117200</v>
@@ -28380,7 +28400,7 @@
         <v>106600</v>
       </c>
       <c r="K552" t="n">
-        <v>33.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L552" t="n">
         <v>117180</v>
@@ -28431,7 +28451,7 @@
         <v>106700</v>
       </c>
       <c r="K553" t="n">
-        <v>26.31578947368421</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L553" t="n">
         <v>117120</v>
@@ -28482,7 +28502,7 @@
         <v>106800</v>
       </c>
       <c r="K554" t="n">
-        <v>26.31578947368421</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L554" t="n">
         <v>117080</v>
@@ -28533,7 +28553,7 @@
         <v>106800</v>
       </c>
       <c r="K555" t="n">
-        <v>22.22222222222222</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L555" t="n">
         <v>117050</v>
@@ -28584,7 +28604,7 @@
         <v>107200</v>
       </c>
       <c r="K556" t="n">
-        <v>5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L556" t="n">
         <v>117000</v>
@@ -28635,7 +28655,7 @@
         <v>107200</v>
       </c>
       <c r="K557" t="n">
-        <v>2.702702702702703</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L557" t="n">
         <v>116960</v>
@@ -28686,7 +28706,7 @@
         <v>107800</v>
       </c>
       <c r="K558" t="n">
-        <v>7.692307692307693</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L558" t="n">
         <v>116980</v>
@@ -28737,7 +28757,7 @@
         <v>108300</v>
       </c>
       <c r="K559" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L559" t="n">
         <v>116960</v>
@@ -28788,7 +28808,7 @@
         <v>108300</v>
       </c>
       <c r="K560" t="n">
-        <v>-5</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L560" t="n">
         <v>116900</v>
@@ -28839,7 +28859,7 @@
         <v>108400</v>
       </c>
       <c r="K561" t="n">
-        <v>-10</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L561" t="n">
         <v>116850</v>
@@ -28890,7 +28910,7 @@
         <v>108500</v>
       </c>
       <c r="K562" t="n">
-        <v>-17.94871794871795</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>116800</v>
@@ -28941,7 +28961,7 @@
         <v>108900</v>
       </c>
       <c r="K563" t="n">
-        <v>-21.05263157894737</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L563" t="n">
         <v>116780</v>
@@ -28992,7 +29012,7 @@
         <v>109000</v>
       </c>
       <c r="K564" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L564" t="n">
         <v>116760</v>
@@ -29043,7 +29063,7 @@
         <v>109300</v>
       </c>
       <c r="K565" t="n">
-        <v>-21.05263157894737</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L565" t="n">
         <v>116710</v>
@@ -29094,7 +29114,7 @@
         <v>109500</v>
       </c>
       <c r="K566" t="n">
-        <v>-21.05263157894737</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L566" t="n">
         <v>116680</v>
@@ -29145,7 +29165,7 @@
         <v>109700</v>
       </c>
       <c r="K567" t="n">
-        <v>-12.82051282051282</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L567" t="n">
         <v>116670</v>
@@ -29196,7 +29216,7 @@
         <v>110200</v>
       </c>
       <c r="K568" t="n">
-        <v>-22.72727272727273</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L568" t="n">
         <v>116550</v>
@@ -29247,7 +29267,7 @@
         <v>110600</v>
       </c>
       <c r="K569" t="n">
-        <v>-10.63829787234043</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L569" t="n">
         <v>116520</v>
@@ -29298,7 +29318,7 @@
         <v>110600</v>
       </c>
       <c r="K570" t="n">
-        <v>-20.93023255813954</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L570" t="n">
         <v>116490</v>
@@ -29349,7 +29369,7 @@
         <v>110600</v>
       </c>
       <c r="K571" t="n">
-        <v>-17.07317073170732</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L571" t="n">
         <v>116470</v>
@@ -29400,7 +29420,7 @@
         <v>110600</v>
       </c>
       <c r="K572" t="n">
-        <v>-15</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L572" t="n">
         <v>116460</v>
@@ -29451,7 +29471,7 @@
         <v>111100</v>
       </c>
       <c r="K573" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L573" t="n">
         <v>116360</v>
@@ -29502,7 +29522,7 @@
         <v>111500</v>
       </c>
       <c r="K574" t="n">
-        <v>-14.8936170212766</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L574" t="n">
         <v>116310</v>
@@ -29553,7 +29573,7 @@
         <v>112000</v>
       </c>
       <c r="K575" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L575" t="n">
         <v>116240</v>
@@ -29604,7 +29624,7 @@
         <v>112200</v>
       </c>
       <c r="K576" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L576" t="n">
         <v>116210</v>
@@ -29655,7 +29675,7 @@
         <v>112300</v>
       </c>
       <c r="K577" t="n">
-        <v>-9.803921568627452</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L577" t="n">
         <v>116170</v>
@@ -29706,7 +29726,7 @@
         <v>112500</v>
       </c>
       <c r="K578" t="n">
-        <v>-27.65957446808511</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L578" t="n">
         <v>116160</v>
@@ -29757,7 +29777,7 @@
         <v>112700</v>
       </c>
       <c r="K579" t="n">
-        <v>-13.63636363636363</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L579" t="n">
         <v>116130</v>
@@ -29808,7 +29828,7 @@
         <v>112700</v>
       </c>
       <c r="K580" t="n">
-        <v>-13.63636363636363</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L580" t="n">
         <v>116100</v>
@@ -29859,7 +29879,7 @@
         <v>112700</v>
       </c>
       <c r="K581" t="n">
-        <v>-11.62790697674419</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L581" t="n">
         <v>116070</v>
@@ -29910,7 +29930,7 @@
         <v>113000</v>
       </c>
       <c r="K582" t="n">
-        <v>-2.222222222222222</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L582" t="n">
         <v>116070</v>
@@ -29961,7 +29981,7 @@
         <v>113000</v>
       </c>
       <c r="K583" t="n">
-        <v>-12.19512195121951</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L583" t="n">
         <v>116120</v>
@@ -30012,7 +30032,7 @@
         <v>113100</v>
       </c>
       <c r="K584" t="n">
-        <v>-7.317073170731707</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L584" t="n">
         <v>116140</v>
@@ -30063,7 +30083,7 @@
         <v>113200</v>
       </c>
       <c r="K585" t="n">
-        <v>2.564102564102564</v>
+        <v>60</v>
       </c>
       <c r="L585" t="n">
         <v>116220</v>
@@ -30114,7 +30134,7 @@
         <v>113200</v>
       </c>
       <c r="K586" t="n">
-        <v>8.108108108108109</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L586" t="n">
         <v>116280</v>
@@ -30165,7 +30185,7 @@
         <v>113400</v>
       </c>
       <c r="K587" t="n">
-        <v>8.108108108108109</v>
+        <v>100</v>
       </c>
       <c r="L587" t="n">
         <v>116350</v>
@@ -30216,7 +30236,7 @@
         <v>113500</v>
       </c>
       <c r="K588" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L588" t="n">
         <v>116450</v>
@@ -30267,7 +30287,7 @@
         <v>113800</v>
       </c>
       <c r="K589" t="n">
-        <v>6.25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L589" t="n">
         <v>116500</v>
@@ -30318,7 +30338,7 @@
         <v>113800</v>
       </c>
       <c r="K590" t="n">
-        <v>6.25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L590" t="n">
         <v>116550</v>
@@ -30369,7 +30389,7 @@
         <v>113800</v>
       </c>
       <c r="K591" t="n">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="L591" t="n">
         <v>116600</v>
@@ -30420,7 +30440,7 @@
         <v>114400</v>
       </c>
       <c r="K592" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L592" t="n">
         <v>116560</v>
@@ -30471,7 +30491,7 @@
         <v>114600</v>
       </c>
       <c r="K593" t="n">
-        <v>-2.857142857142857</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L593" t="n">
         <v>116500</v>
@@ -30522,7 +30542,7 @@
         <v>115300</v>
       </c>
       <c r="K594" t="n">
-        <v>5.263157894736842</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L594" t="n">
         <v>116500</v>
@@ -30573,7 +30593,7 @@
         <v>116000</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L595" t="n">
         <v>116420</v>
@@ -30624,7 +30644,7 @@
         <v>116300</v>
       </c>
       <c r="K596" t="n">
-        <v>-12.19512195121951</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L596" t="n">
         <v>116310</v>
@@ -30675,7 +30695,7 @@
         <v>116300</v>
       </c>
       <c r="K597" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="L597" t="n">
         <v>116180</v>
@@ -30726,7 +30746,7 @@
         <v>116400</v>
       </c>
       <c r="K598" t="n">
-        <v>-12.82051282051282</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L598" t="n">
         <v>116030</v>
@@ -30777,7 +30797,7 @@
         <v>116900</v>
       </c>
       <c r="K599" t="n">
-        <v>-4.761904761904762</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L599" t="n">
         <v>115960</v>
@@ -30828,7 +30848,7 @@
         <v>117100</v>
       </c>
       <c r="K600" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L600" t="n">
         <v>115870</v>
@@ -30879,7 +30899,7 @@
         <v>117300</v>
       </c>
       <c r="K601" t="n">
-        <v>-13.04347826086956</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L601" t="n">
         <v>115760</v>
@@ -30930,7 +30950,7 @@
         <v>117300</v>
       </c>
       <c r="K602" t="n">
-        <v>-20.93023255813954</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L602" t="n">
         <v>115710</v>
@@ -30981,7 +31001,7 @@
         <v>117300</v>
       </c>
       <c r="K603" t="n">
-        <v>-20.93023255813954</v>
+        <v>-50</v>
       </c>
       <c r="L603" t="n">
         <v>115680</v>
@@ -31032,7 +31052,7 @@
         <v>117300</v>
       </c>
       <c r="K604" t="n">
-        <v>-23.80952380952381</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L604" t="n">
         <v>115580</v>
@@ -31083,7 +31103,7 @@
         <v>117300</v>
       </c>
       <c r="K605" t="n">
-        <v>-26.82926829268293</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>115550</v>
@@ -31134,7 +31154,7 @@
         <v>117600</v>
       </c>
       <c r="K606" t="n">
-        <v>-31.81818181818182</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L606" t="n">
         <v>115520</v>
@@ -31185,7 +31205,7 @@
         <v>117900</v>
       </c>
       <c r="K607" t="n">
-        <v>-28.88888888888889</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L607" t="n">
         <v>115520</v>
@@ -31236,7 +31256,7 @@
         <v>118100</v>
       </c>
       <c r="K608" t="n">
-        <v>-34.78260869565217</v>
+        <v>-50</v>
       </c>
       <c r="L608" t="n">
         <v>115510</v>
@@ -31287,7 +31307,7 @@
         <v>118300</v>
       </c>
       <c r="K609" t="n">
-        <v>-24.44444444444444</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L609" t="n">
         <v>115470</v>
@@ -31338,7 +31358,7 @@
         <v>118300</v>
       </c>
       <c r="K610" t="n">
-        <v>-24.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>115450</v>
@@ -31389,7 +31409,7 @@
         <v>118600</v>
       </c>
       <c r="K611" t="n">
-        <v>-29.16666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L611" t="n">
         <v>115420</v>
@@ -31440,7 +31460,7 @@
         <v>118600</v>
       </c>
       <c r="K612" t="n">
-        <v>-19.04761904761905</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L612" t="n">
         <v>115390</v>
@@ -31491,7 +31511,7 @@
         <v>118900</v>
       </c>
       <c r="K613" t="n">
-        <v>-6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>115390</v>
@@ -31542,7 +31562,7 @@
         <v>119300</v>
       </c>
       <c r="K614" t="n">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="L614" t="n">
         <v>115430</v>
@@ -31593,7 +31613,7 @@
         <v>119400</v>
       </c>
       <c r="K615" t="n">
-        <v>5.88235294117647</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L615" t="n">
         <v>115480</v>
@@ -31644,7 +31664,7 @@
         <v>119600</v>
       </c>
       <c r="K616" t="n">
-        <v>21.21212121212121</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L616" t="n">
         <v>115580</v>
@@ -31695,7 +31715,7 @@
         <v>119700</v>
       </c>
       <c r="K617" t="n">
-        <v>23.52941176470588</v>
+        <v>62.5</v>
       </c>
       <c r="L617" t="n">
         <v>115660</v>
@@ -31746,7 +31766,7 @@
         <v>120100</v>
       </c>
       <c r="K618" t="n">
-        <v>35.13513513513514</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L618" t="n">
         <v>115800</v>
@@ -31797,7 +31817,7 @@
         <v>120300</v>
       </c>
       <c r="K619" t="n">
-        <v>29.41176470588236</v>
+        <v>70</v>
       </c>
       <c r="L619" t="n">
         <v>115940</v>
@@ -31848,7 +31868,7 @@
         <v>120400</v>
       </c>
       <c r="K620" t="n">
-        <v>39.39393939393939</v>
+        <v>100</v>
       </c>
       <c r="L620" t="n">
         <v>116090</v>
@@ -31899,7 +31919,7 @@
         <v>120500</v>
       </c>
       <c r="K621" t="n">
-        <v>43.75</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L621" t="n">
         <v>116260</v>
@@ -31950,7 +31970,7 @@
         <v>120500</v>
       </c>
       <c r="K622" t="n">
-        <v>43.75</v>
+        <v>87.5</v>
       </c>
       <c r="L622" t="n">
         <v>116430</v>
@@ -32001,7 +32021,7 @@
         <v>120700</v>
       </c>
       <c r="K623" t="n">
-        <v>47.05882352941176</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L623" t="n">
         <v>116590</v>
@@ -32052,7 +32072,7 @@
         <v>120700</v>
       </c>
       <c r="K624" t="n">
-        <v>47.05882352941176</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L624" t="n">
         <v>116710</v>
@@ -32103,7 +32123,7 @@
         <v>120700</v>
       </c>
       <c r="K625" t="n">
-        <v>47.05882352941176</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L625" t="n">
         <v>116820</v>
@@ -32154,7 +32174,7 @@
         <v>120700</v>
       </c>
       <c r="K626" t="n">
-        <v>61.29032258064516</v>
+        <v>80</v>
       </c>
       <c r="L626" t="n">
         <v>116910</v>
@@ -32205,7 +32225,7 @@
         <v>121200</v>
       </c>
       <c r="K627" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L627" t="n">
         <v>116940</v>
@@ -32256,7 +32276,7 @@
         <v>121600</v>
       </c>
       <c r="K628" t="n">
-        <v>48.57142857142857</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L628" t="n">
         <v>116970</v>
@@ -32307,7 +32327,7 @@
         <v>122000</v>
       </c>
       <c r="K629" t="n">
-        <v>29.72972972972973</v>
+        <v>-25</v>
       </c>
       <c r="L629" t="n">
         <v>116940</v>
@@ -32358,7 +32378,7 @@
         <v>122000</v>
       </c>
       <c r="K630" t="n">
-        <v>29.72972972972973</v>
+        <v>-20</v>
       </c>
       <c r="L630" t="n">
         <v>116900</v>
@@ -32409,7 +32429,7 @@
         <v>122100</v>
       </c>
       <c r="K631" t="n">
-        <v>37.14285714285715</v>
+        <v>-25</v>
       </c>
       <c r="L631" t="n">
         <v>116860</v>
@@ -32460,7 +32480,7 @@
         <v>122600</v>
       </c>
       <c r="K632" t="n">
-        <v>20</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L632" t="n">
         <v>116770</v>
@@ -32511,7 +32531,7 @@
         <v>122600</v>
       </c>
       <c r="K633" t="n">
-        <v>13.51351351351351</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L633" t="n">
         <v>116660</v>
@@ -32562,7 +32582,7 @@
         <v>122600</v>
       </c>
       <c r="K634" t="n">
-        <v>3.03030303030303</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L634" t="n">
         <v>116550</v>
@@ -32613,7 +32633,7 @@
         <v>122600</v>
       </c>
       <c r="K635" t="n">
-        <v>0</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L635" t="n">
         <v>116440</v>
@@ -32664,7 +32684,7 @@
         <v>123400</v>
       </c>
       <c r="K636" t="n">
-        <v>15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L636" t="n">
         <v>116410</v>
@@ -32715,7 +32735,7 @@
         <v>123700</v>
       </c>
       <c r="K637" t="n">
-        <v>5</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L637" t="n">
         <v>116400</v>
@@ -32766,7 +32786,7 @@
         <v>124000</v>
       </c>
       <c r="K638" t="n">
-        <v>2.564102564102564</v>
+        <v>10</v>
       </c>
       <c r="L638" t="n">
         <v>116380</v>
@@ -32817,7 +32837,7 @@
         <v>124000</v>
       </c>
       <c r="K639" t="n">
-        <v>-2.702702702702703</v>
+        <v>10</v>
       </c>
       <c r="L639" t="n">
         <v>116400</v>
@@ -32868,7 +32888,7 @@
         <v>124300</v>
       </c>
       <c r="K640" t="n">
-        <v>2.564102564102564</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L640" t="n">
         <v>116450</v>
@@ -32919,7 +32939,7 @@
         <v>124600</v>
       </c>
       <c r="K641" t="n">
-        <v>-2.439024390243902</v>
+        <v>40</v>
       </c>
       <c r="L641" t="n">
         <v>116480</v>
@@ -32970,7 +32990,7 @@
         <v>124900</v>
       </c>
       <c r="K642" t="n">
-        <v>4.545454545454546</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L642" t="n">
         <v>116590</v>
@@ -33021,7 +33041,7 @@
         <v>125200</v>
       </c>
       <c r="K643" t="n">
-        <v>6.666666666666667</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L643" t="n">
         <v>116730</v>
@@ -33072,7 +33092,7 @@
         <v>125600</v>
       </c>
       <c r="K644" t="n">
-        <v>-2.040816326530612</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L644" t="n">
         <v>116830</v>
@@ -33123,7 +33143,7 @@
         <v>125600</v>
       </c>
       <c r="K645" t="n">
-        <v>-2.040816326530612</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L645" t="n">
         <v>116930</v>
@@ -33174,7 +33194,7 @@
         <v>125800</v>
       </c>
       <c r="K646" t="n">
-        <v>1.96078431372549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L646" t="n">
         <v>116970</v>
@@ -33225,7 +33245,7 @@
         <v>125800</v>
       </c>
       <c r="K647" t="n">
-        <v>13.04347826086956</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L647" t="n">
         <v>117040</v>
@@ -33276,7 +33296,7 @@
         <v>125900</v>
       </c>
       <c r="K648" t="n">
-        <v>6.976744186046512</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L648" t="n">
         <v>117090</v>
@@ -33327,7 +33347,7 @@
         <v>125900</v>
       </c>
       <c r="K649" t="n">
-        <v>17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L649" t="n">
         <v>117140</v>
@@ -33378,7 +33398,7 @@
         <v>126000</v>
       </c>
       <c r="K650" t="n">
-        <v>15</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L650" t="n">
         <v>117150</v>
@@ -33429,7 +33449,7 @@
         <v>126100</v>
       </c>
       <c r="K651" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L651" t="n">
         <v>117200</v>
@@ -33480,7 +33500,7 @@
         <v>126200</v>
       </c>
       <c r="K652" t="n">
-        <v>38.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>117230</v>
@@ -33531,7 +33551,7 @@
         <v>126300</v>
       </c>
       <c r="K653" t="n">
-        <v>35.13513513513514</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L653" t="n">
         <v>117220</v>
@@ -33582,7 +33602,7 @@
         <v>126400</v>
       </c>
       <c r="K654" t="n">
-        <v>36.84210526315789</v>
+        <v>50</v>
       </c>
       <c r="L654" t="n">
         <v>117260</v>
@@ -33633,7 +33653,7 @@
         <v>126400</v>
       </c>
       <c r="K655" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L655" t="n">
         <v>117300</v>
@@ -33684,7 +33704,7 @@
         <v>126400</v>
       </c>
       <c r="K656" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>117320</v>
@@ -33735,7 +33755,7 @@
         <v>126600</v>
       </c>
       <c r="K657" t="n">
-        <v>37.93103448275862</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L657" t="n">
         <v>117360</v>
@@ -33786,7 +33806,7 @@
         <v>126900</v>
       </c>
       <c r="K658" t="n">
-        <v>37.93103448275862</v>
+        <v>60</v>
       </c>
       <c r="L658" t="n">
         <v>117420</v>
@@ -33837,7 +33857,7 @@
         <v>127100</v>
       </c>
       <c r="K659" t="n">
-        <v>41.93548387096774</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L659" t="n">
         <v>117500</v>
@@ -33888,7 +33908,7 @@
         <v>127200</v>
       </c>
       <c r="K660" t="n">
-        <v>37.93103448275862</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L660" t="n">
         <v>117600</v>
@@ -33939,7 +33959,7 @@
         <v>127400</v>
       </c>
       <c r="K661" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L661" t="n">
         <v>117670</v>
@@ -33990,7 +34010,7 @@
         <v>127600</v>
       </c>
       <c r="K662" t="n">
-        <v>25.92592592592592</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L662" t="n">
         <v>117710</v>
@@ -34041,7 +34061,7 @@
         <v>127700</v>
       </c>
       <c r="K663" t="n">
-        <v>12</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L663" t="n">
         <v>117750</v>
@@ -34092,7 +34112,7 @@
         <v>128000</v>
       </c>
       <c r="K664" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>117750</v>
@@ -34149,7 +34169,7 @@
         <v>128500</v>
       </c>
       <c r="K665" t="n">
-        <v>31.03448275862069</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L665" t="n">
         <v>117800</v>
@@ -34208,7 +34228,7 @@
         <v>128700</v>
       </c>
       <c r="K666" t="n">
-        <v>17.24137931034483</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L666" t="n">
         <v>117830</v>
@@ -34271,7 +34291,7 @@
         <v>128900</v>
       </c>
       <c r="K667" t="n">
-        <v>22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L667" t="n">
         <v>117860</v>
@@ -34334,7 +34354,7 @@
         <v>128900</v>
       </c>
       <c r="K668" t="n">
-        <v>20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L668" t="n">
         <v>117860</v>
@@ -34397,7 +34417,7 @@
         <v>129600</v>
       </c>
       <c r="K669" t="n">
-        <v>35.13513513513514</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L669" t="n">
         <v>117910</v>
@@ -34458,7 +34478,7 @@
         <v>130300</v>
       </c>
       <c r="K670" t="n">
-        <v>16.27906976744186</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L670" t="n">
         <v>117880</v>
@@ -34519,7 +34539,7 @@
         <v>130600</v>
       </c>
       <c r="K671" t="n">
-        <v>20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L671" t="n">
         <v>117900</v>
@@ -34641,7 +34661,7 @@
         <v>131000</v>
       </c>
       <c r="K673" t="n">
-        <v>14.8936170212766</v>
+        <v>20</v>
       </c>
       <c r="L673" t="n">
         <v>117980</v>
@@ -34702,7 +34722,7 @@
         <v>131000</v>
       </c>
       <c r="K674" t="n">
-        <v>13.04347826086956</v>
+        <v>4</v>
       </c>
       <c r="L674" t="n">
         <v>118040</v>
@@ -34763,7 +34783,7 @@
         <v>131200</v>
       </c>
       <c r="K675" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L675" t="n">
         <v>118070</v>
@@ -34820,7 +34840,7 @@
         <v>131400</v>
       </c>
       <c r="K676" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L676" t="n">
         <v>118100</v>
@@ -34877,7 +34897,7 @@
         <v>131400</v>
       </c>
       <c r="K677" t="n">
-        <v>8.333333333333332</v>
+        <v>4</v>
       </c>
       <c r="L677" t="n">
         <v>118110</v>
@@ -34934,7 +34954,7 @@
         <v>131600</v>
       </c>
       <c r="K678" t="n">
-        <v>6.382978723404255</v>
+        <v>-20</v>
       </c>
       <c r="L678" t="n">
         <v>118140</v>
@@ -34991,7 +35011,7 @@
         <v>131600</v>
       </c>
       <c r="K679" t="n">
-        <v>2.222222222222222</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L679" t="n">
         <v>118100</v>
@@ -35105,7 +35125,7 @@
         <v>132000</v>
       </c>
       <c r="K681" t="n">
-        <v>13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L681" t="n">
         <v>118170</v>
@@ -35162,7 +35182,7 @@
         <v>132700</v>
       </c>
       <c r="K682" t="n">
-        <v>29.41176470588236</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L682" t="n">
         <v>118270</v>
@@ -35219,7 +35239,7 @@
         <v>133400</v>
       </c>
       <c r="K683" t="n">
-        <v>40.35087719298245</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L683" t="n">
         <v>118470</v>
@@ -35270,7 +35290,7 @@
         <v>133800</v>
       </c>
       <c r="K684" t="n">
-        <v>51.72413793103448</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L684" t="n">
         <v>118710</v>
@@ -35321,7 +35341,7 @@
         <v>134900</v>
       </c>
       <c r="K685" t="n">
-        <v>56.25</v>
+        <v>100</v>
       </c>
       <c r="L685" t="n">
         <v>119040</v>
@@ -35372,7 +35392,7 @@
         <v>135700</v>
       </c>
       <c r="K686" t="n">
-        <v>65.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L686" t="n">
         <v>119470</v>
@@ -35423,7 +35443,7 @@
         <v>135900</v>
       </c>
       <c r="K687" t="n">
-        <v>65.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L687" t="n">
         <v>119920</v>
@@ -35474,7 +35494,7 @@
         <v>135900</v>
       </c>
       <c r="K688" t="n">
-        <v>65.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L688" t="n">
         <v>120350</v>
@@ -35525,7 +35545,7 @@
         <v>136100</v>
       </c>
       <c r="K689" t="n">
-        <v>56.92307692307692</v>
+        <v>91.11111111111111</v>
       </c>
       <c r="L689" t="n">
         <v>120760</v>
@@ -35576,7 +35596,7 @@
         <v>136100</v>
       </c>
       <c r="K690" t="n">
-        <v>75.86206896551724</v>
+        <v>90.2439024390244</v>
       </c>
       <c r="L690" t="n">
         <v>121170</v>
@@ -35627,7 +35647,7 @@
         <v>136300</v>
       </c>
       <c r="K691" t="n">
-        <v>68.42105263157895</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L691" t="n">
         <v>121520</v>
@@ -35678,7 +35698,7 @@
         <v>136400</v>
       </c>
       <c r="K692" t="n">
-        <v>64.91228070175438</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L692" t="n">
         <v>121790</v>
@@ -35729,7 +35749,7 @@
         <v>137100</v>
       </c>
       <c r="K693" t="n">
-        <v>54.09836065573771</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L693" t="n">
         <v>121920</v>
@@ -35780,7 +35800,7 @@
         <v>137200</v>
       </c>
       <c r="K694" t="n">
-        <v>54.83870967741935</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L694" t="n">
         <v>122020</v>
@@ -35831,7 +35851,7 @@
         <v>137300</v>
       </c>
       <c r="K695" t="n">
-        <v>50.81967213114754</v>
+        <v>-62.5</v>
       </c>
       <c r="L695" t="n">
         <v>122000</v>
@@ -35882,7 +35902,7 @@
         <v>137500</v>
       </c>
       <c r="K696" t="n">
-        <v>50.81967213114754</v>
+        <v>-87.5</v>
       </c>
       <c r="L696" t="n">
         <v>121880</v>
@@ -35933,7 +35953,7 @@
         <v>137900</v>
       </c>
       <c r="K697" t="n">
-        <v>53.84615384615385</v>
+        <v>-50</v>
       </c>
       <c r="L697" t="n">
         <v>121780</v>
@@ -35984,7 +36004,7 @@
         <v>138400</v>
       </c>
       <c r="K698" t="n">
-        <v>55.88235294117647</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L698" t="n">
         <v>121730</v>
@@ -36035,7 +36055,7 @@
         <v>138900</v>
       </c>
       <c r="K699" t="n">
-        <v>58.9041095890411</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L699" t="n">
         <v>121750</v>
@@ -36086,7 +36106,7 @@
         <v>142800</v>
       </c>
       <c r="K700" t="n">
-        <v>73.21428571428571</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="L700" t="n">
         <v>122160</v>
@@ -36137,7 +36157,7 @@
         <v>142900</v>
       </c>
       <c r="K701" t="n">
-        <v>70.64220183486239</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="L701" t="n">
         <v>122580</v>
@@ -36188,7 +36208,7 @@
         <v>142900</v>
       </c>
       <c r="K702" t="n">
-        <v>68.62745098039215</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L702" t="n">
         <v>123010</v>
@@ -36239,7 +36259,7 @@
         <v>143400</v>
       </c>
       <c r="K703" t="n">
-        <v>57.99999999999999</v>
+        <v>70.96774193548387</v>
       </c>
       <c r="L703" t="n">
         <v>123460</v>
@@ -36290,7 +36310,7 @@
         <v>143600</v>
       </c>
       <c r="K704" t="n">
-        <v>53.06122448979592</v>
+        <v>68.25396825396825</v>
       </c>
       <c r="L704" t="n">
         <v>123880</v>
@@ -36341,7 +36361,7 @@
         <v>143600</v>
       </c>
       <c r="K705" t="n">
-        <v>47.12643678160919</v>
+        <v>73.77049180327869</v>
       </c>
       <c r="L705" t="n">
         <v>124310</v>
@@ -36392,7 +36412,7 @@
         <v>143700</v>
       </c>
       <c r="K706" t="n">
-        <v>42.5</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L706" t="n">
         <v>124770</v>
@@ -36443,7 +36463,7 @@
         <v>144000</v>
       </c>
       <c r="K707" t="n">
-        <v>43.20987654320987</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L707" t="n">
         <v>125220</v>
@@ -36494,7 +36514,7 @@
         <v>144700</v>
       </c>
       <c r="K708" t="n">
-        <v>31.81818181818182</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L708" t="n">
         <v>125550</v>
@@ -36545,7 +36565,7 @@
         <v>145200</v>
       </c>
       <c r="K709" t="n">
-        <v>38.46153846153847</v>
+        <v>-25</v>
       </c>
       <c r="L709" t="n">
         <v>125880</v>
@@ -36596,7 +36616,7 @@
         <v>145300</v>
       </c>
       <c r="K710" t="n">
-        <v>36.95652173913043</v>
+        <v>-25</v>
       </c>
       <c r="L710" t="n">
         <v>125810</v>
@@ -36647,7 +36667,7 @@
         <v>145400</v>
       </c>
       <c r="K711" t="n">
-        <v>38.46153846153847</v>
+        <v>-28</v>
       </c>
       <c r="L711" t="n">
         <v>125740</v>
@@ -36698,7 +36718,7 @@
         <v>145500</v>
       </c>
       <c r="K712" t="n">
-        <v>38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L712" t="n">
         <v>125660</v>
@@ -36749,7 +36769,7 @@
         <v>145500</v>
       </c>
       <c r="K713" t="n">
-        <v>50</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L713" t="n">
         <v>125630</v>
@@ -36800,7 +36820,7 @@
         <v>145600</v>
       </c>
       <c r="K714" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L714" t="n">
         <v>125630</v>
@@ -36851,7 +36871,7 @@
         <v>145600</v>
       </c>
       <c r="K715" t="n">
-        <v>51.80722891566265</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L715" t="n">
         <v>125630</v>
@@ -36902,7 +36922,7 @@
         <v>146000</v>
       </c>
       <c r="K716" t="n">
-        <v>57.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>125660</v>
@@ -36953,7 +36973,7 @@
         <v>147300</v>
       </c>
       <c r="K717" t="n">
-        <v>61.70212765957447</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L717" t="n">
         <v>125790</v>
@@ -37004,7 +37024,7 @@
         <v>148000</v>
       </c>
       <c r="K718" t="n">
-        <v>47.91666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L718" t="n">
         <v>125920</v>
@@ -37055,7 +37075,7 @@
         <v>148300</v>
       </c>
       <c r="K719" t="n">
-        <v>46.80851063829788</v>
+        <v>40</v>
       </c>
       <c r="L719" t="n">
         <v>126030</v>
@@ -37106,7 +37126,7 @@
         <v>148300</v>
       </c>
       <c r="K720" t="n">
-        <v>9.090909090909092</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L720" t="n">
         <v>126150</v>
@@ -37157,7 +37177,7 @@
         <v>148500</v>
       </c>
       <c r="K721" t="n">
-        <v>7.142857142857142</v>
+        <v>40</v>
       </c>
       <c r="L721" t="n">
         <v>126260</v>
@@ -37208,7 +37228,7 @@
         <v>148900</v>
       </c>
       <c r="K722" t="n">
-        <v>0</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L722" t="n">
         <v>126340</v>
@@ -37259,7 +37279,7 @@
         <v>149800</v>
       </c>
       <c r="K723" t="n">
-        <v>-6.25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L723" t="n">
         <v>126330</v>
@@ -37310,7 +37330,7 @@
         <v>149900</v>
       </c>
       <c r="K724" t="n">
-        <v>-1.587301587301587</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L724" t="n">
         <v>126320</v>
@@ -37361,7 +37381,7 @@
         <v>150000</v>
       </c>
       <c r="K725" t="n">
-        <v>-3.125</v>
+        <v>-15</v>
       </c>
       <c r="L725" t="n">
         <v>126300</v>
@@ -37412,7 +37432,7 @@
         <v>150000</v>
       </c>
       <c r="K726" t="n">
-        <v>-4.761904761904762</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L726" t="n">
         <v>126240</v>
@@ -37463,7 +37483,7 @@
         <v>150700</v>
       </c>
       <c r="K727" t="n">
-        <v>-19.40298507462687</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L727" t="n">
         <v>125980</v>
@@ -37514,7 +37534,7 @@
         <v>150900</v>
       </c>
       <c r="K728" t="n">
-        <v>-12.90322580645161</v>
+        <v>-92.30769230769231</v>
       </c>
       <c r="L728" t="n">
         <v>125770</v>
@@ -37565,7 +37585,7 @@
         <v>151600</v>
       </c>
       <c r="K729" t="n">
-        <v>-9.375</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L729" t="n">
         <v>125600</v>
@@ -37616,7 +37636,7 @@
         <v>151600</v>
       </c>
       <c r="K730" t="n">
-        <v>-7.936507936507936</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L730" t="n">
         <v>125430</v>
@@ -37667,7 +37687,7 @@
         <v>152000</v>
       </c>
       <c r="K731" t="n">
-        <v>-12.12121212121212</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L731" t="n">
         <v>125240</v>
@@ -37718,7 +37738,7 @@
         <v>152500</v>
       </c>
       <c r="K732" t="n">
-        <v>-17.14285714285714</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L732" t="n">
         <v>125040</v>

--- a/BackTest/2019-10-24 BackTest BSV.xlsx
+++ b/BackTest/2019-10-24 BackTest BSV.xlsx
@@ -4756,14 +4756,20 @@
         <v>114738.3333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>113700</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4797,20 @@
         <v>114711.6666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>113200</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4838,20 @@
         <v>114691.6666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>113400</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,14 +4879,20 @@
         <v>114671.6666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>114000</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,14 +4920,20 @@
         <v>114655</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>113800</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +4968,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5007,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5046,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5085,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5124,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5163,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5202,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5241,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5211,14 +5273,20 @@
         <v>114403.3333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>112700</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +5314,20 @@
         <v>114363.3333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>113500</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5281,14 +5355,20 @@
         <v>114315</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>113100</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +5396,20 @@
         <v>114266.6666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>112600</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5437,20 @@
         <v>114226.6666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>112800</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5478,20 @@
         <v>114196.6666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>113300</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5519,20 @@
         <v>114160</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>113500</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +5560,20 @@
         <v>114135</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>113600</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5608,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5647,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5686,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5725,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5764,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5803,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5842,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5881,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5920,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5959,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5998,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6037,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6076,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6115,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6154,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6193,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6232,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6271,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6310,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6349,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6388,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6427,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6466,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6505,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6544,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6583,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6622,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6661,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6700,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6739,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6778,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6817,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6856,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6895,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6934,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6973,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7012,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7051,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7090,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7129,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7168,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7207,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7246,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7285,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7324,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7363,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7402,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7441,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7480,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7519,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7558,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7597,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7636,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7675,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7714,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7753,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7792,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7831,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7870,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7909,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7948,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7987,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8026,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8065,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8104,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8143,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8182,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8221,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8260,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8299,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8338,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8377,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8416,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8455,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8494,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8533,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8572,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8611,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8650,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8689,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8728,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8767,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8806,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8845,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8884,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8923,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8962,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +9001,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9040,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9079,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9118,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8676,14 +9150,20 @@
         <v>114610</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>113600</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +9191,20 @@
         <v>114581.6666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>113600</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9239,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9278,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9317,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9356,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9395,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9434,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9473,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9512,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9551,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9590,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9629,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9668,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9707,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9746,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9785,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9824,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9863,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9902,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9941,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9980,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +10019,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10058,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +10097,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10136,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +10175,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +10214,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10253,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10292,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10331,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10370,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10409,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10448,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10487,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10526,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10565,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10604,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10643,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10682,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10721,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10760,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10799,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10838,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10877,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10916,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10955,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10994,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +11033,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11072,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11111,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10461,18 +11143,18 @@
         <v>112995</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K288" t="n">
-        <v>112200</v>
-      </c>
-      <c r="L288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10500,20 +11182,16 @@
         <v>112970</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K289" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M289" t="n">
@@ -10543,17 +11221,13 @@
         <v>112945</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K290" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,17 +11260,13 @@
         <v>112920</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K291" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,17 +11299,13 @@
         <v>112895</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K292" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,17 +11338,13 @@
         <v>112870</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K293" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,9 +11383,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10762,9 +11422,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10797,17 +11455,13 @@
         <v>112798.3333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K296" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,9 +11500,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,9 +11539,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,17 +11572,13 @@
         <v>112715</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>111900</v>
-      </c>
-      <c r="K299" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,17 +11611,13 @@
         <v>112686.6666666667</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K300" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11008,17 +11650,13 @@
         <v>112653.3333333333</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>111600</v>
-      </c>
-      <c r="K301" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11051,17 +11689,13 @@
         <v>112628.3333333333</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K302" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,17 +11728,13 @@
         <v>112605</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K303" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11137,17 +11767,13 @@
         <v>112575</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K304" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,17 +11806,13 @@
         <v>112545</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K305" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11223,17 +11845,13 @@
         <v>112521.6666666667</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K306" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11266,17 +11884,13 @@
         <v>112491.6666666667</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K307" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11309,17 +11923,13 @@
         <v>112460</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K308" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,17 +11962,13 @@
         <v>112426.6666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K309" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,17 +12001,13 @@
         <v>112400</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K310" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11438,17 +12040,13 @@
         <v>112383.3333333333</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K311" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,17 +12079,13 @@
         <v>112365</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K312" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,17 +12118,13 @@
         <v>112348.3333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K313" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11567,17 +12157,13 @@
         <v>112321.6666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K314" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,17 +12196,13 @@
         <v>112305</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K315" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11653,17 +12235,13 @@
         <v>112291.6666666667</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K316" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11696,17 +12274,13 @@
         <v>112268.3333333333</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K317" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11739,17 +12313,13 @@
         <v>112250</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K318" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,17 +12352,13 @@
         <v>112231.6666666667</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K319" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11825,17 +12391,13 @@
         <v>112223.3333333333</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K320" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11868,17 +12430,13 @@
         <v>112220</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K321" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,17 +12469,13 @@
         <v>112210</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K322" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,17 +12508,13 @@
         <v>112198.3333333333</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K323" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,17 +12547,13 @@
         <v>112188.3333333333</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K324" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12040,17 +12586,13 @@
         <v>112176.6666666667</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K325" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,17 +12625,13 @@
         <v>112161.6666666667</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>111600</v>
-      </c>
-      <c r="K326" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12126,17 +12664,13 @@
         <v>112145</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>111600</v>
-      </c>
-      <c r="K327" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12169,17 +12703,13 @@
         <v>112128.3333333333</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K328" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,17 +12742,13 @@
         <v>112108.3333333333</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K329" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12255,17 +12781,13 @@
         <v>112086.6666666667</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>111400</v>
-      </c>
-      <c r="K330" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12298,17 +12820,13 @@
         <v>112073.3333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K331" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,17 +12859,13 @@
         <v>112063.3333333333</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K332" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12384,17 +12898,13 @@
         <v>112053.3333333333</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K333" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,17 +12937,13 @@
         <v>112038.3333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K334" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,17 +12976,13 @@
         <v>112033.3333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K335" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12513,17 +13015,13 @@
         <v>112033.3333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K336" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,17 +13054,13 @@
         <v>112035</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K337" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12599,17 +13093,13 @@
         <v>112031.6666666667</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K338" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,17 +13132,13 @@
         <v>112033.3333333333</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K339" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12685,17 +13171,13 @@
         <v>112035</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K340" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,17 +13210,13 @@
         <v>112038.3333333333</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K341" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12771,17 +13249,13 @@
         <v>112038.3333333333</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K342" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12814,17 +13288,13 @@
         <v>112045</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K343" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,17 +13327,13 @@
         <v>112040</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K344" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12900,17 +13366,13 @@
         <v>112045</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K345" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,17 +13405,13 @@
         <v>112041.6666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K346" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12986,17 +13444,13 @@
         <v>112041.6666666667</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K347" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,17 +13483,13 @@
         <v>112045</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K348" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13072,17 +13522,13 @@
         <v>112055</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>112800</v>
-      </c>
-      <c r="K349" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13115,17 +13561,13 @@
         <v>112063.3333333333</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>112700</v>
-      </c>
-      <c r="K350" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13158,17 +13600,13 @@
         <v>112071.6666666667</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>112700</v>
-      </c>
-      <c r="K351" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,17 +13639,13 @@
         <v>112078.3333333333</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K352" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13244,17 +13678,13 @@
         <v>112078.3333333333</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K353" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13287,17 +13717,13 @@
         <v>112075</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K354" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13330,17 +13756,13 @@
         <v>112083.3333333333</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K355" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13373,17 +13795,13 @@
         <v>112091.6666666667</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K356" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,17 +13834,13 @@
         <v>112100</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K357" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13459,17 +13873,13 @@
         <v>112110</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K358" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,17 +13912,13 @@
         <v>112118.3333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K359" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13545,17 +13951,13 @@
         <v>112125</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K360" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,17 +13990,13 @@
         <v>112133.3333333333</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K361" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13631,17 +14029,13 @@
         <v>112135</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K362" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,17 +14068,13 @@
         <v>112141.6666666667</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K363" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,17 +14107,13 @@
         <v>112153.3333333333</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K364" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,17 +14146,13 @@
         <v>112156.6666666667</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K365" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,17 +14185,13 @@
         <v>112163.3333333333</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K366" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13846,17 +14224,13 @@
         <v>112170</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K367" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13889,17 +14263,13 @@
         <v>112183.3333333333</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K368" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13932,17 +14302,13 @@
         <v>112191.6666666667</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K369" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,17 +14341,13 @@
         <v>112196.6666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K370" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14018,17 +14380,13 @@
         <v>112196.6666666667</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K371" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,17 +14419,13 @@
         <v>112198.3333333333</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K372" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,17 +14458,13 @@
         <v>112198.3333333333</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K373" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14147,17 +14497,13 @@
         <v>112205</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K374" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,17 +14536,13 @@
         <v>112208.3333333333</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K375" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,17 +14575,13 @@
         <v>112211.6666666667</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K376" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14276,17 +14614,13 @@
         <v>112218.3333333333</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K377" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14319,17 +14653,13 @@
         <v>112230</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K378" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14362,17 +14692,13 @@
         <v>112240</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K379" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14405,17 +14731,13 @@
         <v>112251.6666666667</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K380" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,17 +14770,13 @@
         <v>112261.6666666667</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K381" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14491,17 +14809,13 @@
         <v>112275</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K382" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,17 +14848,13 @@
         <v>112293.3333333333</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K383" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,17 +14887,13 @@
         <v>112310</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K384" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14620,17 +14926,13 @@
         <v>112331.6666666667</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>112900</v>
-      </c>
-      <c r="K385" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,17 +14965,13 @@
         <v>112351.6666666667</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>112800</v>
-      </c>
-      <c r="K386" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14712,9 +15010,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,17 +15043,13 @@
         <v>112398.3333333333</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>113100</v>
-      </c>
-      <c r="K388" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14796,9 +15088,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,9 +15127,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,9 +15166,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,9 +15205,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14960,9 +15244,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,9 +15283,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,9 +15322,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15083,9 +15361,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,9 +15400,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +15439,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,9 +15478,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,9 +15517,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,9 +15556,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15370,9 +15634,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15411,9 +15673,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15452,9 +15712,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,9 +15751,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +15790,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15575,9 +15829,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15616,9 +15868,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,9 +15907,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15698,9 +15946,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,9 +15985,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15780,9 +16024,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15821,9 +16063,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,9 +16102,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15897,17 +16135,13 @@
         <v>112653.3333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K416" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,17 +16174,13 @@
         <v>112643.3333333333</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>111900</v>
-      </c>
-      <c r="K417" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15983,17 +16213,13 @@
         <v>112640</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>112300</v>
-      </c>
-      <c r="K418" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,17 +16252,13 @@
         <v>112636.6666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>112200</v>
-      </c>
-      <c r="K419" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16069,17 +16291,13 @@
         <v>112633.3333333333</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K420" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16112,17 +16330,13 @@
         <v>112633.3333333333</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K421" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16155,17 +16369,13 @@
         <v>112633.3333333333</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K422" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,17 +16408,13 @@
         <v>112626.6666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K423" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16241,17 +16447,13 @@
         <v>112620</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K424" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16284,17 +16486,13 @@
         <v>112616.6666666667</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K425" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16327,17 +16525,13 @@
         <v>112603.3333333333</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K426" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16370,17 +16564,13 @@
         <v>112591.6666666667</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>111800</v>
-      </c>
-      <c r="K427" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16413,17 +16603,13 @@
         <v>112573.3333333333</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K428" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16456,17 +16642,13 @@
         <v>112556.6666666667</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K429" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16499,17 +16681,13 @@
         <v>112535</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K430" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16542,17 +16720,13 @@
         <v>112511.6666666667</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K431" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16585,17 +16759,13 @@
         <v>112485</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>111000</v>
-      </c>
-      <c r="K432" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,17 +16798,13 @@
         <v>112465</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>110900</v>
-      </c>
-      <c r="K433" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,17 +16837,13 @@
         <v>112446.6666666667</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K434" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16714,17 +16876,13 @@
         <v>112428.3333333333</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K435" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16757,17 +16915,13 @@
         <v>112411.6666666667</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K436" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16800,17 +16954,13 @@
         <v>112396.6666666667</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K437" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16843,17 +16993,13 @@
         <v>112378.3333333333</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K438" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16886,17 +17032,13 @@
         <v>112361.6666666667</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>111600</v>
-      </c>
-      <c r="K439" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16929,17 +17071,13 @@
         <v>112338.3333333333</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K440" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,17 +17110,13 @@
         <v>112315</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>111200</v>
-      </c>
-      <c r="K441" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17015,17 +17149,13 @@
         <v>112290</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>111300</v>
-      </c>
-      <c r="K442" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,17 +17188,13 @@
         <v>112265</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>111100</v>
-      </c>
-      <c r="K443" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17101,17 +17227,13 @@
         <v>112241.6666666667</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>111400</v>
-      </c>
-      <c r="K444" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17144,17 +17266,13 @@
         <v>112223.3333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>111700</v>
-      </c>
-      <c r="K445" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17187,17 +17305,13 @@
         <v>112215</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K446" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,17 +17344,13 @@
         <v>112208.3333333333</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>112600</v>
-      </c>
-      <c r="K447" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17273,17 +17383,13 @@
         <v>112193.3333333333</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>112100</v>
-      </c>
-      <c r="K448" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17316,17 +17422,13 @@
         <v>112180</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K449" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17359,17 +17461,13 @@
         <v>112168.3333333333</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K450" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17402,17 +17500,13 @@
         <v>112150</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K451" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17445,17 +17539,13 @@
         <v>112130</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>112000</v>
-      </c>
-      <c r="K452" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17488,17 +17578,13 @@
         <v>112113.3333333333</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>111900</v>
-      </c>
-      <c r="K453" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17531,17 +17617,13 @@
         <v>112105</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>112400</v>
-      </c>
-      <c r="K454" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17574,17 +17656,13 @@
         <v>112101.6666666667</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K455" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17617,17 +17695,13 @@
         <v>112100</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>112800</v>
-      </c>
-      <c r="K456" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17660,17 +17734,13 @@
         <v>112101.6666666667</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>112500</v>
-      </c>
-      <c r="K457" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17703,17 +17773,13 @@
         <v>112103.3333333333</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>113000</v>
-      </c>
-      <c r="K458" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17746,17 +17812,13 @@
         <v>112113.3333333333</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>113000</v>
-      </c>
-      <c r="K459" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17789,17 +17851,13 @@
         <v>112120</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>113300</v>
-      </c>
-      <c r="K460" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17832,17 +17890,13 @@
         <v>112133.3333333333</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>113500</v>
-      </c>
-      <c r="K461" t="n">
-        <v>112200</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17881,9 +17935,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17922,9 +17974,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17963,9 +18013,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,9 +18052,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18045,9 +18091,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18086,9 +18130,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18127,9 +18169,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,9 +18208,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18209,9 +18247,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18250,9 +18286,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18291,9 +18325,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18332,9 +18364,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18373,9 +18403,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18414,9 +18442,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18455,9 +18481,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18496,9 +18520,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18537,9 +18559,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,9 +18598,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18619,9 +18637,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18660,9 +18676,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18701,9 +18715,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18742,9 +18754,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18783,9 +18793,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18824,9 +18832,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18865,9 +18871,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18906,9 +18910,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18947,9 +18949,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18988,9 +18988,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,9 +19027,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19070,9 +19066,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19111,9 +19105,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19152,9 +19144,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,9 +19183,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +19222,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19275,9 +19261,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19316,9 +19300,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19357,9 +19339,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19398,9 +19378,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19439,9 +19417,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19480,9 +19456,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19521,9 +19495,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19562,9 +19534,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19603,9 +19573,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19644,9 +19612,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19685,9 +19651,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19726,9 +19690,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19767,9 +19729,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19808,9 +19768,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19849,9 +19807,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19890,9 +19846,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19931,9 +19885,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19972,9 +19924,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20013,9 +19963,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20054,9 +20002,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20095,9 +20041,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20136,9 +20080,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20177,9 +20119,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20218,9 +20158,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20259,9 +20197,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20300,9 +20236,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20341,9 +20275,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20382,9 +20314,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20423,9 +20353,7 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20464,9 +20392,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20505,9 +20431,7 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20546,9 +20470,7 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20587,9 +20509,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,9 +20548,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20669,9 +20587,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20710,9 +20626,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20751,9 +20665,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20792,9 +20704,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +20743,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20874,9 +20782,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20915,9 +20821,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20956,9 +20860,7 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20997,9 +20899,7 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21038,9 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21079,9 +20977,7 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21120,9 +21016,7 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21161,9 +21055,7 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21202,9 +21094,7 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21243,9 +21133,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21284,9 +21172,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21325,9 +21211,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,9 +21250,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21407,9 +21289,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21448,9 +21328,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21489,9 +21367,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,9 +21406,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21571,9 +21445,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21612,9 +21484,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21653,9 +21523,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21694,9 +21562,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21735,9 +21601,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21776,9 +21640,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21817,9 +21679,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21858,9 +21718,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21899,9 +21757,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21940,9 +21796,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21981,9 +21835,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22022,9 +21874,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22063,9 +21913,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22104,9 +21952,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22145,9 +21991,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22186,9 +22030,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22227,9 +22069,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22268,9 +22108,7 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22309,9 +22147,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22350,9 +22186,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22391,9 +22225,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +22264,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22473,9 +22303,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22514,9 +22342,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22555,9 +22381,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22596,9 +22420,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22637,9 +22459,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22678,9 +22498,7 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22719,9 +22537,7 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22760,9 +22576,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22801,9 +22615,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22842,9 +22654,7 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22883,9 +22693,7 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22924,9 +22732,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22965,9 +22771,7 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23006,9 +22810,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23047,9 +22849,7 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23088,9 +22888,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23129,9 +22927,7 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23170,9 +22966,7 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23211,9 +23005,7 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23252,9 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23293,9 +23083,7 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23334,9 +23122,7 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23375,9 +23161,7 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23416,9 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23457,9 +23239,7 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23498,9 +23278,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23539,9 +23317,7 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23580,9 +23356,7 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23621,9 +23395,7 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23662,9 +23434,7 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23703,9 +23473,7 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23744,9 +23512,7 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23785,9 +23551,7 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23826,9 +23590,7 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23867,9 +23629,7 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23908,9 +23668,7 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23949,9 +23707,7 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23990,9 +23746,7 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +23785,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24072,9 +23824,7 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24113,9 +23863,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24154,9 +23902,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24195,9 +23941,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24236,9 +23980,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24277,9 +24019,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24318,9 +24058,7 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24359,9 +24097,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24400,9 +24136,7 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24441,9 +24175,7 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24482,9 +24214,7 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24523,9 +24253,7 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24564,9 +24292,7 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24605,9 +24331,7 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24646,9 +24370,7 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24687,9 +24409,7 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24728,9 +24448,7 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24769,9 +24487,7 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24810,9 +24526,7 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24851,9 +24565,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24892,9 +24604,7 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24933,9 +24643,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24974,9 +24682,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25015,9 +24721,7 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25056,9 +24760,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25097,9 +24799,7 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25138,9 +24838,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25179,9 +24877,7 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25220,9 +24916,7 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25261,9 +24955,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25302,9 +24994,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25343,9 +25033,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25384,9 +25072,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25425,9 +25111,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25466,9 +25150,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25507,9 +25189,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25548,9 +25228,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25589,9 +25267,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25630,9 +25306,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25671,9 +25345,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25712,9 +25384,7 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25753,9 +25423,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25794,9 +25462,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25835,9 +25501,7 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25876,9 +25540,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25917,9 +25579,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25958,9 +25618,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25999,9 +25657,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26040,9 +25696,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26081,9 +25735,7 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26122,9 +25774,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26163,9 +25813,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26204,9 +25852,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26245,9 +25891,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26286,9 +25930,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26327,9 +25969,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26368,9 +26008,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26409,9 +26047,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26450,9 +26086,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26491,9 +26125,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26532,9 +26164,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26573,9 +26203,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26614,9 +26242,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26655,9 +26281,7 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26696,9 +26320,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26737,9 +26359,7 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26778,9 +26398,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26819,9 +26437,7 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26860,9 +26476,7 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26901,9 +26515,7 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26942,9 +26554,7 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26983,9 +26593,7 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27024,9 +26632,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27065,9 +26671,7 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27106,9 +26710,7 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27147,9 +26749,7 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27185,19 +26785,17 @@
         <v>0</v>
       </c>
       <c r="I689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="n">
-        <v>112200</v>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>1.085017825311943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -27226,11 +26824,15 @@
         <v>0</v>
       </c>
       <c r="I690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -27261,11 +26863,15 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -27300,7 +26906,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -27335,7 +26945,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -27370,7 +26984,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -27405,7 +27023,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -27440,7 +27062,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -27475,7 +27101,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -27510,7 +27140,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -27545,7 +27179,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -27580,7 +27218,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -27615,7 +27257,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -27650,7 +27296,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -27681,14 +27331,16 @@
         <v>0</v>
       </c>
       <c r="I703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
-      <c r="M703" t="n">
-        <v>1</v>
-      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -27716,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest BSV.xlsx
+++ b/BackTest/2019-10-24 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11869,11 +11869,17 @@
         <v>-1601.14124093</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>112200</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +11912,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +11949,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +11986,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12023,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12060,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12097,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12134,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12171,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12208,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12245,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12282,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12319,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12356,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12393,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12430,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12467,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12500,17 @@
         <v>-1760.56235949</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>111800</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12539,17 @@
         <v>-1760.56235949</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>112100</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12582,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12619,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12656,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12693,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12730,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12767,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12804,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12837,17 @@
         <v>-1718.22025949</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>112200</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12880,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12913,17 @@
         <v>-1727.13885949</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>112400</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12956,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12989,17 @@
         <v>-1739.45365949</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>111900</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13028,17 @@
         <v>-1740.90365949</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>112000</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13067,17 @@
         <v>-1740.48365949</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>111900</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13106,17 @@
         <v>-1760.68275949</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>112000</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13145,17 @@
         <v>-1765.68015949</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>111800</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13184,17 @@
         <v>-1764.03255949</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>111500</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13223,17 @@
         <v>-1793.75275949</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>111800</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13262,17 @@
         <v>-1826.68515949</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>111600</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13301,17 @@
         <v>-1813.03695949</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>111400</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13340,17 @@
         <v>-1812.78695949</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>111600</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13379,17 @@
         <v>-1824.78755949</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>111700</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13418,17 @@
         <v>-1824.78755949</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>111400</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13457,17 @@
         <v>-1824.49755949</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>111400</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13496,17 @@
         <v>-1837.58875949</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>111800</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13535,17 @@
         <v>-1837.58875949</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>111700</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13574,17 @@
         <v>-1837.58875949</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>111700</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13613,17 @@
         <v>-1837.32445949</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>111700</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13652,17 @@
         <v>-1825.62375949</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>112000</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13691,17 @@
         <v>-1821.54955949</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>112200</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13730,17 @@
         <v>-1824.06195949</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>112300</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13769,17 @@
         <v>-1822.89425949</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>112000</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13808,17 @@
         <v>-1844.13285949</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>112400</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13847,17 @@
         <v>-1843.86285949</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>112300</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13886,17 @@
         <v>-1844.28885949</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>112500</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13925,17 @@
         <v>-1844.02885949</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>112200</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13964,17 @@
         <v>-1850.22995949</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>112600</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14003,17 @@
         <v>-1849.35995949</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>112200</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14042,17 @@
         <v>-1849.58995949</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>112600</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14081,17 @@
         <v>-1849.54375949</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>112100</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14120,17 @@
         <v>-1846.47135949</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>112300</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14159,17 @@
         <v>-1846.47035949</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>112400</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14198,17 @@
         <v>-1871.23035949</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>112800</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14237,17 @@
         <v>-1871.23035949</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>112700</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14276,17 @@
         <v>-1879.87715949</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>112700</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14315,17 @@
         <v>-2034.34925949</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>112600</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14354,17 @@
         <v>-2034.03925949</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>112300</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14393,17 @@
         <v>-2033.67925949</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>112400</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14432,17 @@
         <v>-2033.68405949</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>112700</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14471,17 @@
         <v>-2033.68405949</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>112500</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14510,17 @@
         <v>-2033.68405949</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>112500</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14549,17 @@
         <v>-2039.31165949</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>112500</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14588,17 @@
         <v>-2044.85045949</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>112400</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14627,17 @@
         <v>-2065.32185949</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>112300</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14666,17 @@
         <v>-2065.32185949</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>112100</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14705,17 @@
         <v>-2064.92185949</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>112100</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14744,17 @@
         <v>-2064.92185949</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>112500</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14783,17 @@
         <v>-2147.71805949</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>112500</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14822,17 @@
         <v>-2147.44805949</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>112000</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14861,17 @@
         <v>-2147.44805949</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>112500</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14900,17 @@
         <v>-2147.12805949</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>112500</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14939,17 @@
         <v>-2147.52805949</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>112600</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14978,17 @@
         <v>-2147.52805949</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>112500</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +15017,17 @@
         <v>-2147.52805949</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>112500</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +15056,17 @@
         <v>-2147.52805949</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>112500</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +15095,17 @@
         <v>-2147.52805949</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>112500</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +15134,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>112500</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +15173,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>112600</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +15212,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>112600</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +15251,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>112600</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +15290,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>112600</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15329,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>112600</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15368,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>112600</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15407,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>112600</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15446,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>112600</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15485,17 @@
         <v>-2146.27155949</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>112600</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15524,17 @@
         <v>-2142.71625949</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>112600</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15563,17 @@
         <v>-2135.97215949</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>112800</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15602,17 @@
         <v>-2141.25925949</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>112900</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15641,17 @@
         <v>-2141.00925949</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>112600</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15680,17 @@
         <v>-2138.13895949</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>113000</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15719,17 @@
         <v>-2137.88895949</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>113100</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15762,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15799,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15832,17 @@
         <v>-2137.88895949</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>113200</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15875,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15912,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15949,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15986,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16023,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16060,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +16093,17 @@
         <v>-2213.44335949</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>112900</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +16132,17 @@
         <v>-2213.44335949</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>112900</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16175,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +16208,17 @@
         <v>-2221.19335949</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>112700</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +16247,17 @@
         <v>-2221.19335949</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>112900</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16286,17 @@
         <v>-2221.19335949</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>112900</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16325,17 @@
         <v>-2254.32465949</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>112900</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16364,17 @@
         <v>-2254.03465949</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>112700</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16403,17 @@
         <v>-2254.03465949</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>112900</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16442,17 @@
         <v>-2254.41145949</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>112900</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16481,17 @@
         <v>-2254.06145949</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>112700</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16520,17 @@
         <v>-2254.31145949</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>113000</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16559,17 @@
         <v>-2524.243459490001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>112900</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16602,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16635,17 @@
         <v>-2692.932659490001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>112500</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16674,17 @@
         <v>-2675.920759490001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>111800</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16713,17 @@
         <v>-2609.024559490001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>111900</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16752,17 @@
         <v>-2608.916424500001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>112100</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16791,17 @@
         <v>-2621.054724500001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>112600</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16830,17 @@
         <v>-2620.554724500001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>111900</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16869,17 @@
         <v>-2622.434724500001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>112300</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16908,17 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>112200</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16947,17 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>112100</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16986,17 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>112100</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +17025,17 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>112100</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +17064,17 @@
         <v>-2634.446624500001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>112100</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +17103,17 @@
         <v>-2689.795324500001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>112100</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +17142,17 @@
         <v>-2689.818424500001</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>111800</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +17181,17 @@
         <v>-2689.0184245</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>111700</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +17220,17 @@
         <v>-2701.730524500001</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>111800</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +17259,17 @@
         <v>-2701.730524500001</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>111500</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,7 +17298,7 @@
         <v>-2702.687724500001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>111500</v>
@@ -16530,7 +17306,7 @@
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L489" t="n">
@@ -16561,9 +17337,11 @@
         <v>-2702.8677245</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>111200</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16598,7 +17376,7 @@
         <v>-2750.6645245</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>111100</v>
@@ -16637,7 +17415,7 @@
         <v>-2677.9351245</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>110900</v>
@@ -16676,7 +17454,7 @@
         <v>-2665.0411245</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>111300</v>
@@ -16715,7 +17493,7 @@
         <v>-2665.0411245</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>111500</v>
@@ -16754,7 +17532,7 @@
         <v>-2661.8459245</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>111500</v>
@@ -16793,7 +17571,7 @@
         <v>-2661.2759245</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>111600</v>
@@ -16832,7 +17610,7 @@
         <v>-2664.9766245</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>111700</v>
@@ -16871,7 +17649,7 @@
         <v>-2663.5566245</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>111500</v>
@@ -16910,7 +17688,7 @@
         <v>-2678.6607245</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>111600</v>
@@ -16949,7 +17727,7 @@
         <v>-2678.6607245</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>111200</v>
@@ -16988,7 +17766,7 @@
         <v>-2716.6095245</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>111200</v>
@@ -17027,7 +17805,7 @@
         <v>-2716.6095245</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>111100</v>
@@ -17066,7 +17844,7 @@
         <v>-2716.2695245</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>111100</v>
@@ -17105,7 +17883,7 @@
         <v>-2670.2547245</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>111400</v>
@@ -17144,7 +17922,7 @@
         <v>-2656.2938245</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>111800</v>
@@ -17183,7 +17961,7 @@
         <v>-2654.12962379</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>112100</v>
@@ -17222,7 +18000,7 @@
         <v>-2665.15922379</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>112600</v>
@@ -17261,7 +18039,7 @@
         <v>-2653.14732379</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>112200</v>
@@ -17300,7 +18078,7 @@
         <v>-2648.71502379</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>112400</v>
@@ -17339,7 +18117,7 @@
         <v>-2650.67082379</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>112500</v>
@@ -17378,7 +18156,7 @@
         <v>-2662.68272379</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>112100</v>
@@ -17417,7 +18195,7 @@
         <v>-2663.57222379</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>112000</v>
@@ -17456,7 +18234,7 @@
         <v>-2663.47222379</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>111900</v>
@@ -17495,7 +18273,7 @@
         <v>-2661.065123790001</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>112400</v>
@@ -17534,9 +18312,11 @@
         <v>-2661.605123790001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>113000</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17571,9 +18351,11 @@
         <v>-2663.19722379</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>112800</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17608,9 +18390,11 @@
         <v>-2654.215723790001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>112500</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17645,9 +18429,11 @@
         <v>-2621.860823790001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>113000</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17682,9 +18468,11 @@
         <v>-2631.626423790001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>113500</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17719,9 +18507,11 @@
         <v>-2630.656423790001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>113300</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18311,9 +19101,11 @@
         <v>-2602.962323790001</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>113900</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18348,9 +19140,11 @@
         <v>-2602.962323790001</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>114000</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18385,9 +19179,11 @@
         <v>-2602.962323790001</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>114000</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18718,9 +19514,11 @@
         <v>-2469.868723790001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>113400</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18755,9 +19553,11 @@
         <v>-2470.162823790001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>113800</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18792,9 +19592,11 @@
         <v>-2470.162823790001</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>113400</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18829,9 +19631,11 @@
         <v>-2436.922123790001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>113400</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18866,9 +19670,11 @@
         <v>-2436.302123790001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>113700</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18903,9 +19709,11 @@
         <v>-2436.562123790001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>114100</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18940,9 +19748,11 @@
         <v>-2438.867023790001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>114000</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18977,9 +19787,11 @@
         <v>-2438.867023790001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>113900</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19014,9 +19826,11 @@
         <v>-2438.867023790001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>113900</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19051,9 +19865,11 @@
         <v>-2438.617023790001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>113900</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -26044,16 +26860,18 @@
         <v>-1322.419529250002</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L745" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
       <c r="M745" t="inlineStr"/>
     </row>
     <row r="746">
@@ -26079,11 +26897,15 @@
         <v>-919.5791292500019</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26112,11 +26934,15 @@
         <v>-919.5791292500019</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26145,11 +26971,15 @@
         <v>-1055.098729250002</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26178,11 +27008,15 @@
         <v>-1055.098729250002</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26211,11 +27045,15 @@
         <v>-1063.414829250002</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26248,7 +27086,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26281,7 +27123,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26314,7 +27160,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26347,7 +27197,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26380,7 +27234,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26413,7 +27271,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26446,7 +27308,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26479,7 +27345,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26512,7 +27382,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26541,11 +27415,15 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26574,11 +27452,15 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26607,11 +27489,15 @@
         <v>-1028.318106660002</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26640,11 +27526,15 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26673,11 +27563,15 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26706,11 +27600,15 @@
         <v>-1058.639606660002</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26739,11 +27637,15 @@
         <v>-1035.360301900002</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26776,7 +27678,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26805,11 +27711,15 @@
         <v>-980.831427930002</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26842,7 +27752,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26875,7 +27789,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26908,7 +27826,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26941,7 +27863,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26970,11 +27896,15 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27007,7 +27937,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27040,7 +27974,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27073,7 +28011,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27102,14 +28044,16 @@
         <v>-1114.797594130002</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr"/>
       <c r="M777" t="inlineStr"/>
     </row>
     <row r="778">
@@ -27135,7 +28079,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27168,7 +28112,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27201,7 +28145,7 @@
         <v>-791.0611941300019</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27212,6 +28156,6 @@
       <c r="M780" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest BSV.xlsx
+++ b/BackTest/2019-10-24 BackTest BSV.xlsx
@@ -616,7 +616,7 @@
         <v>948.21559518</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>961.3346951800002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1015.03449518</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1145.71489518</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1224.20879518</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1191.11689328</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1127.69609328</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>906.28439328</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>915.64579328</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>890.11089328</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>933.91889328</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>907.32209328</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>912.61209328</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>906.33429328</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>905.58429328</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>905.88429328</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>928.57349328</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>928.81349328</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>908.77349328</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>900.94869328</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>907.39219328</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>885.56699328</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>907.7755932800001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>892.31059328</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>873.2456932800001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1667.86075907</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1574.03125907</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1549.55055907</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1549.81055907</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1543.14775907</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1546.97405907</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1435.04195907</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1386.01395907</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -17649,11 +17649,9 @@
         <v>-2663.19722379</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>112800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
         <v>111700</v>
       </c>
@@ -17690,11 +17688,9 @@
         <v>-2654.215723790001</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
         <v>111700</v>
       </c>
@@ -20851,7 +20847,7 @@
         <v>-2514.278491200002</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
@@ -20859,11 +20855,11 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L598" t="n">
-        <v>1.039762757385855</v>
+        <v>1</v>
       </c>
       <c r="M598" t="inlineStr"/>
     </row>
@@ -20890,11 +20886,17 @@
         <v>-2507.430591200001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20923,11 +20925,17 @@
         <v>-2228.041749570001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20956,11 +20964,17 @@
         <v>-2210.879449570001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20989,11 +21003,17 @@
         <v>-2206.251449570001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21022,11 +21042,17 @@
         <v>-2348.633849570001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21055,11 +21081,17 @@
         <v>-2485.193249570001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21088,11 +21120,17 @@
         <v>-2486.013249570001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21121,11 +21159,17 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21154,11 +21198,17 @@
         <v>-2522.048949570001</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21187,11 +21237,17 @@
         <v>-2535.548949570001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21220,11 +21276,17 @@
         <v>-2529.548649570001</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21253,11 +21315,17 @@
         <v>-2530.118649570001</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21286,11 +21354,17 @@
         <v>-2567.518649570001</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21319,11 +21393,17 @@
         <v>-2479.008649570001</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21352,11 +21432,17 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21385,11 +21471,17 @@
         <v>-2487.803249570001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21418,11 +21510,17 @@
         <v>-2587.903249570001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21454,8 +21552,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21487,8 +21591,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21517,11 +21627,17 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21550,11 +21666,17 @@
         <v>-2617.503831490001</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21583,11 +21705,17 @@
         <v>-2655.833431490001</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21616,11 +21744,17 @@
         <v>-2735.833431490001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21649,11 +21783,17 @@
         <v>-2704.399231320001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +21822,17 @@
         <v>-2708.267031320001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21715,11 +21861,17 @@
         <v>-2708.682231320001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21748,11 +21900,17 @@
         <v>-2739.481031320001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21781,11 +21939,17 @@
         <v>-2674.091931320001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21814,11 +21978,17 @@
         <v>-2679.173431320001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21850,8 +22020,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21883,8 +22059,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21916,8 +22098,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21949,8 +22137,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21982,8 +22176,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22015,8 +22215,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22048,8 +22254,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22081,8 +22293,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22114,8 +22332,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22147,8 +22371,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22180,8 +22410,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22213,8 +22449,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22246,8 +22488,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22279,8 +22527,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22312,8 +22566,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22345,8 +22605,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22378,8 +22644,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22411,8 +22683,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22444,8 +22722,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22477,8 +22761,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22510,8 +22800,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22543,8 +22839,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22576,8 +22878,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22609,8 +22917,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22642,8 +22956,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22675,8 +22995,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22708,8 +23034,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22738,15 +23070,17 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>115800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>115800</v>
-      </c>
-      <c r="K655" t="inlineStr"/>
+        <v>111700</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22775,17 +23109,15 @@
         <v>-2633.584631320001</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L656" t="n">
@@ -22816,17 +23148,15 @@
         <v>-2635.671731320002</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L657" t="n">
@@ -22857,13 +23187,11 @@
         <v>-2635.421731320002</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>115400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22898,13 +23226,11 @@
         <v>-2636.221731320002</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>115900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22939,13 +23265,11 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>115700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22980,13 +23304,11 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23021,13 +23343,11 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23062,13 +23382,11 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23103,13 +23421,11 @@
         <v>-2636.721731320002</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23144,13 +23460,11 @@
         <v>-2672.860531320002</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23185,13 +23499,11 @@
         <v>-2672.427231320002</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>115200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23226,13 +23538,11 @@
         <v>-2673.430131320002</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23267,13 +23577,11 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>115300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23308,13 +23616,11 @@
         <v>-2664.105831320001</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23349,13 +23655,11 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23390,13 +23694,11 @@
         <v>-2665.275531320001</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>115200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23431,13 +23733,11 @@
         <v>-2653.933731320001</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>115200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23472,13 +23772,11 @@
         <v>-2653.914731320001</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>115500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23513,13 +23811,11 @@
         <v>-2652.856831320002</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>115900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23554,13 +23850,11 @@
         <v>-2643.635231320002</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>116000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23595,13 +23889,11 @@
         <v>-2633.139631320002</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>116200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23640,7 +23932,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23679,7 +23971,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23718,7 +24010,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23757,7 +24049,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23796,7 +24088,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23835,7 +24127,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23874,7 +24166,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23913,7 +24205,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23952,7 +24244,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23991,7 +24283,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24030,7 +24322,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24069,7 +24361,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24108,7 +24400,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24147,7 +24439,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24186,7 +24478,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24225,7 +24517,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24264,7 +24556,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24303,7 +24595,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24342,7 +24634,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24381,7 +24673,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24420,7 +24712,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24459,7 +24751,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24498,7 +24790,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24537,7 +24829,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24576,7 +24868,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24615,7 +24907,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24650,19 +24942,19 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>115800</v>
+        <v>111700</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L703" t="n">
-        <v>1.005362694300518</v>
+        <v>1</v>
       </c>
       <c r="M703" t="inlineStr"/>
     </row>
@@ -24689,11 +24981,17 @@
         <v>-2610.369608270002</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24722,11 +25020,17 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24755,11 +25059,17 @@
         <v>-2575.275508270002</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24788,11 +25098,17 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24821,11 +25137,17 @@
         <v>-2456.416408270002</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24854,11 +25176,17 @@
         <v>-2462.044808270002</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24887,11 +25215,17 @@
         <v>-2461.981808270002</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24920,11 +25254,17 @@
         <v>-2461.595908270001</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24953,11 +25293,17 @@
         <v>-2470.580508270002</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24986,11 +25332,17 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25019,11 +25371,17 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25052,11 +25410,17 @@
         <v>-2407.166308270002</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25085,11 +25449,17 @@
         <v>-2392.989008270002</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25118,11 +25488,17 @@
         <v>-2382.870808270002</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25151,11 +25527,17 @@
         <v>-2355.374935400002</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25184,11 +25566,17 @@
         <v>-2350.354835400002</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25217,11 +25605,17 @@
         <v>-2394.576935400002</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25250,11 +25644,17 @@
         <v>-2449.162135400002</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25283,11 +25683,17 @@
         <v>-2470.886635400002</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25316,11 +25722,17 @@
         <v>-2476.906735400002</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25349,11 +25761,17 @@
         <v>-2470.932768480002</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25382,11 +25800,17 @@
         <v>-2471.506468480002</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25415,11 +25839,17 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25448,11 +25878,17 @@
         <v>-2409.746768480002</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25481,11 +25917,17 @@
         <v>-2253.395185420002</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25514,11 +25956,17 @@
         <v>-2317.739985420002</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25547,11 +25995,17 @@
         <v>-2312.333185420001</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25580,11 +26034,17 @@
         <v>-2306.051685420001</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25613,11 +26073,17 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25646,11 +26112,17 @@
         <v>-2307.025885420001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25679,11 +26151,17 @@
         <v>-2292.377485420001</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25712,11 +26190,17 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25745,11 +26229,17 @@
         <v>-2294.253585420001</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25778,11 +26268,17 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25811,11 +26307,17 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25844,11 +26346,17 @@
         <v>-2273.130568930002</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25877,11 +26385,17 @@
         <v>-2262.186168930002</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25910,11 +26424,17 @@
         <v>-2096.380168930002</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25943,11 +26463,17 @@
         <v>-1955.508668930002</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25976,11 +26502,17 @@
         <v>-1856.462368930002</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26009,11 +26541,17 @@
         <v>-1469.039974540002</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26042,11 +26580,17 @@
         <v>-1322.419529250002</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26078,8 +26622,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26111,8 +26661,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26144,8 +26700,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26177,8 +26739,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26210,8 +26778,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26243,8 +26817,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26276,8 +26856,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26309,8 +26895,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26342,8 +26934,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26375,8 +26973,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26408,8 +27012,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26441,8 +27051,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26474,8 +27090,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26507,8 +27129,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26537,15 +27165,23 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>111700</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
+        <v>1.125707251566697</v>
+      </c>
+      <c r="M760" t="n">
+        <v>1.043087971274686</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -26570,7 +27206,7 @@
         <v>-759.4496066600021</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26603,7 +27239,7 @@
         <v>-1028.318106660002</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26636,7 +27272,7 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26669,7 +27305,7 @@
         <v>-1129.023006660002</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26702,7 +27338,7 @@
         <v>-1058.639606660002</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26735,7 +27371,7 @@
         <v>-1035.360301900002</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26768,7 +27404,7 @@
         <v>-1075.962001900002</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26801,7 +27437,7 @@
         <v>-980.831427930002</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26834,7 +27470,7 @@
         <v>-1086.936927930002</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26867,7 +27503,7 @@
         <v>-1117.450821580002</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26900,7 +27536,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26933,7 +27569,7 @@
         <v>-1204.043421580002</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26966,7 +27602,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26999,7 +27635,7 @@
         <v>-1203.085021580002</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27032,7 +27668,7 @@
         <v>-1078.239127620002</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27065,7 +27701,7 @@
         <v>-884.3377941300018</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27098,7 +27734,7 @@
         <v>-1114.797594130002</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27131,7 +27767,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27164,7 +27800,7 @@
         <v>-689.6537941300019</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27197,7 +27833,7 @@
         <v>-791.0611941300019</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
